--- a/source-data/spain/spain_covid_source_latest.xlsx
+++ b/source-data/spain/spain_covid_source_latest.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="19440" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -79,13 +84,13 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 392 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 435 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,7 +284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,7 +319,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,11 +528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U251"/>
+  <dimension ref="A1:U254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A252" sqref="A252"/>
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A254" sqref="A254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12739,7 +12744,7 @@
         <v>1</v>
       </c>
       <c r="J188">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K188">
         <v>0</v>
@@ -12772,7 +12777,7 @@
         <v>1</v>
       </c>
       <c r="U188">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.25">
@@ -12922,7 +12927,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -12934,7 +12939,7 @@
         <v>1</v>
       </c>
       <c r="J191">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K191">
         <v>0</v>
@@ -12967,7 +12972,7 @@
         <v>0</v>
       </c>
       <c r="U191" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.25">
@@ -13129,7 +13134,7 @@
         <v>1</v>
       </c>
       <c r="J194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K194">
         <v>0</v>
@@ -13162,7 +13167,7 @@
         <v>0</v>
       </c>
       <c r="U194" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.25">
@@ -13179,7 +13184,7 @@
         <v>0</v>
       </c>
       <c r="E195">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -13227,7 +13232,7 @@
         <v>1</v>
       </c>
       <c r="U195">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
@@ -13259,7 +13264,7 @@
         <v>4</v>
       </c>
       <c r="J196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K196">
         <v>0</v>
@@ -13292,7 +13297,7 @@
         <v>0</v>
       </c>
       <c r="U196">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.25">
@@ -13395,7 +13400,7 @@
         <v>0</v>
       </c>
       <c r="L198">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M198">
         <v>0</v>
@@ -13422,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="U198">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.25">
@@ -13454,7 +13459,7 @@
         <v>8</v>
       </c>
       <c r="J199">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K199">
         <v>1</v>
@@ -13487,7 +13492,7 @@
         <v>0</v>
       </c>
       <c r="U199">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.25">
@@ -13519,7 +13524,7 @@
         <v>5</v>
       </c>
       <c r="J200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K200">
         <v>0</v>
@@ -13552,7 +13557,7 @@
         <v>2</v>
       </c>
       <c r="U200">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.25">
@@ -13584,7 +13589,7 @@
         <v>4</v>
       </c>
       <c r="J201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K201">
         <v>0</v>
@@ -13617,7 +13622,7 @@
         <v>0</v>
       </c>
       <c r="U201">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
@@ -13676,13 +13681,13 @@
         <v>1</v>
       </c>
       <c r="S202">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T202">
         <v>1</v>
       </c>
       <c r="U202">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.25">
@@ -13714,7 +13719,7 @@
         <v>1</v>
       </c>
       <c r="J203">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K203">
         <v>0</v>
@@ -13747,7 +13752,7 @@
         <v>1</v>
       </c>
       <c r="U203">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.25">
@@ -13844,7 +13849,7 @@
         <v>3</v>
       </c>
       <c r="J205">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K205">
         <v>0</v>
@@ -13877,7 +13882,7 @@
         <v>1</v>
       </c>
       <c r="U205">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.25">
@@ -14222,7 +14227,7 @@
         <v>2</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -14267,7 +14272,7 @@
         <v>2</v>
       </c>
       <c r="U211">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
@@ -14479,7 +14484,7 @@
         <v>0</v>
       </c>
       <c r="E215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F215">
         <v>2</v>
@@ -14527,7 +14532,7 @@
         <v>0</v>
       </c>
       <c r="U215" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
@@ -14609,7 +14614,7 @@
         <v>0</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F217">
         <v>2</v>
@@ -14624,7 +14629,7 @@
         <v>8</v>
       </c>
       <c r="J217">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K217">
         <v>0</v>
@@ -14651,13 +14656,13 @@
         <v>1</v>
       </c>
       <c r="S217">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T217">
         <v>2</v>
       </c>
       <c r="U217" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
@@ -14781,13 +14786,13 @@
         <v>3</v>
       </c>
       <c r="S219">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T219">
         <v>1</v>
       </c>
       <c r="U219" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
@@ -14869,7 +14874,7 @@
         <v>0</v>
       </c>
       <c r="E221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F221">
         <v>4</v>
@@ -14884,7 +14889,7 @@
         <v>7</v>
       </c>
       <c r="J221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K221">
         <v>1</v>
@@ -14917,7 +14922,7 @@
         <v>4</v>
       </c>
       <c r="U221" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
@@ -14934,7 +14939,7 @@
         <v>0</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -14949,7 +14954,7 @@
         <v>10</v>
       </c>
       <c r="J222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K222">
         <v>0</v>
@@ -14982,7 +14987,7 @@
         <v>3</v>
       </c>
       <c r="U222" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
@@ -14999,7 +15004,7 @@
         <v>1</v>
       </c>
       <c r="E223">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F223">
         <v>1</v>
@@ -15014,7 +15019,7 @@
         <v>12</v>
       </c>
       <c r="J223">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K223">
         <v>0</v>
@@ -15047,7 +15052,7 @@
         <v>4</v>
       </c>
       <c r="U223">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
@@ -15064,7 +15069,7 @@
         <v>0</v>
       </c>
       <c r="E224">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F224">
         <v>2</v>
@@ -15112,7 +15117,7 @@
         <v>2</v>
       </c>
       <c r="U224">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -15144,7 +15149,7 @@
         <v>12</v>
       </c>
       <c r="J225">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K225">
         <v>0</v>
@@ -15177,7 +15182,7 @@
         <v>1</v>
       </c>
       <c r="U225">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
@@ -15194,7 +15199,7 @@
         <v>1</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F226">
         <v>6</v>
@@ -15242,7 +15247,7 @@
         <v>1</v>
       </c>
       <c r="U226">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
@@ -15324,7 +15329,7 @@
         <v>1</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -15372,7 +15377,7 @@
         <v>1</v>
       </c>
       <c r="U228">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
@@ -15404,7 +15409,7 @@
         <v>13</v>
       </c>
       <c r="J229">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K229">
         <v>0</v>
@@ -15437,7 +15442,7 @@
         <v>2</v>
       </c>
       <c r="U229">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
@@ -15469,7 +15474,7 @@
         <v>14</v>
       </c>
       <c r="J230">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K230">
         <v>0</v>
@@ -15502,7 +15507,7 @@
         <v>2</v>
       </c>
       <c r="U230">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
@@ -15608,13 +15613,13 @@
         <v>6</v>
       </c>
       <c r="M232">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N232">
         <v>5</v>
       </c>
       <c r="O232">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P232">
         <v>0</v>
@@ -15632,7 +15637,7 @@
         <v>4</v>
       </c>
       <c r="U232">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
@@ -15649,7 +15654,7 @@
         <v>1</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F233">
         <v>2</v>
@@ -15664,7 +15669,7 @@
         <v>18</v>
       </c>
       <c r="J233">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K233">
         <v>0</v>
@@ -15673,7 +15678,7 @@
         <v>2</v>
       </c>
       <c r="M233">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N233">
         <v>1</v>
@@ -15697,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="U233">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
@@ -15750,7 +15755,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R234">
         <v>4</v>
@@ -15762,7 +15767,7 @@
         <v>2</v>
       </c>
       <c r="U234">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
@@ -15779,7 +15784,7 @@
         <v>0</v>
       </c>
       <c r="E235">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -15794,7 +15799,7 @@
         <v>19</v>
       </c>
       <c r="J235">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K235">
         <v>1</v>
@@ -15827,7 +15832,7 @@
         <v>0</v>
       </c>
       <c r="U235">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.25">
@@ -15868,7 +15873,7 @@
         <v>6</v>
       </c>
       <c r="M236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N236">
         <v>5</v>
@@ -15892,7 +15897,7 @@
         <v>2</v>
       </c>
       <c r="U236">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.25">
@@ -15933,7 +15938,7 @@
         <v>3</v>
       </c>
       <c r="M237">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N237">
         <v>8</v>
@@ -15957,7 +15962,7 @@
         <v>0</v>
       </c>
       <c r="U237">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
@@ -15989,7 +15994,7 @@
         <v>18</v>
       </c>
       <c r="J238">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K238">
         <v>0</v>
@@ -16022,7 +16027,7 @@
         <v>0</v>
       </c>
       <c r="U238">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.25">
@@ -16033,7 +16038,7 @@
         <v>13</v>
       </c>
       <c r="C239">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -16051,10 +16056,10 @@
         <v>15</v>
       </c>
       <c r="I239">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J239">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K239">
         <v>0</v>
@@ -16087,7 +16092,7 @@
         <v>0</v>
       </c>
       <c r="U239">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.25">
@@ -16119,7 +16124,7 @@
         <v>15</v>
       </c>
       <c r="J240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K240">
         <v>0</v>
@@ -16134,7 +16139,7 @@
         <v>3</v>
       </c>
       <c r="O240">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P240">
         <v>0</v>
@@ -16152,7 +16157,7 @@
         <v>1</v>
       </c>
       <c r="U240">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.25">
@@ -16184,7 +16189,7 @@
         <v>19</v>
       </c>
       <c r="J241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K241">
         <v>1</v>
@@ -16217,7 +16222,7 @@
         <v>2</v>
       </c>
       <c r="U241">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.25">
@@ -16249,7 +16254,7 @@
         <v>16</v>
       </c>
       <c r="J242">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K242">
         <v>0</v>
@@ -16276,13 +16281,13 @@
         <v>2</v>
       </c>
       <c r="S242">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T242">
         <v>1</v>
       </c>
       <c r="U242">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="243" spans="1:21" x14ac:dyDescent="0.25">
@@ -16290,7 +16295,7 @@
         <v>44115</v>
       </c>
       <c r="B243">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C243">
         <v>3</v>
@@ -16299,7 +16304,7 @@
         <v>0</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F243">
         <v>2</v>
@@ -16314,13 +16319,13 @@
         <v>10</v>
       </c>
       <c r="J243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K243">
         <v>0</v>
       </c>
       <c r="L243">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M243">
         <v>3</v>
@@ -16341,13 +16346,13 @@
         <v>2</v>
       </c>
       <c r="S243">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T243">
         <v>0</v>
       </c>
       <c r="U243">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.25">
@@ -16379,7 +16384,7 @@
         <v>17</v>
       </c>
       <c r="J244">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K244">
         <v>0</v>
@@ -16406,13 +16411,13 @@
         <v>3</v>
       </c>
       <c r="S244">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T244">
         <v>1</v>
       </c>
       <c r="U244">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.25">
@@ -16420,7 +16425,7 @@
         <v>44117</v>
       </c>
       <c r="B245">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C245">
         <v>7</v>
@@ -16441,10 +16446,10 @@
         <v>8</v>
       </c>
       <c r="I245">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K245">
         <v>0</v>
@@ -16459,7 +16464,7 @@
         <v>8</v>
       </c>
       <c r="O245">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="P245">
         <v>0</v>
@@ -16471,13 +16476,13 @@
         <v>2</v>
       </c>
       <c r="S245">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T245">
         <v>4</v>
       </c>
       <c r="U245">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.25">
@@ -16485,13 +16490,13 @@
         <v>44118</v>
       </c>
       <c r="B246">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C246">
         <v>7</v>
       </c>
       <c r="D246">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E246">
         <v>3</v>
@@ -16506,7 +16511,7 @@
         <v>6</v>
       </c>
       <c r="I246">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J246">
         <v>0</v>
@@ -16515,16 +16520,16 @@
         <v>0</v>
       </c>
       <c r="L246">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M246">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N246">
         <v>5</v>
       </c>
       <c r="O246">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="P246">
         <v>0</v>
@@ -16536,13 +16541,13 @@
         <v>7</v>
       </c>
       <c r="S246">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T246">
         <v>0</v>
       </c>
       <c r="U246">
-        <v>75</v>
+        <v>115</v>
       </c>
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.25">
@@ -16550,7 +16555,7 @@
         <v>44119</v>
       </c>
       <c r="B247">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C247">
         <v>8</v>
@@ -16571,16 +16576,16 @@
         <v>4</v>
       </c>
       <c r="I247">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J247">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K247">
         <v>0</v>
       </c>
       <c r="L247">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M247">
         <v>3</v>
@@ -16589,7 +16594,7 @@
         <v>5</v>
       </c>
       <c r="O247">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="P247">
         <v>1</v>
@@ -16601,13 +16606,13 @@
         <v>5</v>
       </c>
       <c r="S247">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T247">
         <v>1</v>
       </c>
       <c r="U247">
-        <v>66</v>
+        <v>110</v>
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.25">
@@ -16615,7 +16620,7 @@
         <v>44120</v>
       </c>
       <c r="B248">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C248">
         <v>8</v>
@@ -16636,16 +16641,16 @@
         <v>1</v>
       </c>
       <c r="I248">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J248">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K248">
         <v>0</v>
       </c>
       <c r="L248">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M248">
         <v>3</v>
@@ -16654,25 +16659,25 @@
         <v>7</v>
       </c>
       <c r="O248">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="P248">
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R248">
         <v>7</v>
       </c>
       <c r="S248">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T248">
         <v>0</v>
       </c>
       <c r="U248">
-        <v>50</v>
+        <v>102</v>
       </c>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.25">
@@ -16680,7 +16685,7 @@
         <v>44121</v>
       </c>
       <c r="B249">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C249">
         <v>8</v>
@@ -16698,10 +16703,10 @@
         <v>3</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J249">
         <v>0</v>
@@ -16719,7 +16724,7 @@
         <v>4</v>
       </c>
       <c r="O249">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P249">
         <v>0</v>
@@ -16731,13 +16736,13 @@
         <v>4</v>
       </c>
       <c r="S249">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T249">
         <v>2</v>
       </c>
       <c r="U249">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.25">
@@ -16745,16 +16750,16 @@
         <v>44122</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D250">
         <v>2</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -16763,50 +16768,245 @@
         <v>0</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250">
+        <v>18</v>
+      </c>
+      <c r="J250">
+        <v>4</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>9</v>
+      </c>
+      <c r="M250">
+        <v>1</v>
+      </c>
+      <c r="N250">
+        <v>7</v>
+      </c>
+      <c r="O250">
+        <v>24</v>
+      </c>
+      <c r="P250">
+        <v>0</v>
+      </c>
+      <c r="Q250">
+        <v>0</v>
+      </c>
+      <c r="R250">
+        <v>2</v>
+      </c>
+      <c r="S250">
+        <v>9</v>
+      </c>
+      <c r="T250">
+        <v>0</v>
+      </c>
+      <c r="U250">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B251">
+        <v>3</v>
+      </c>
+      <c r="C251">
+        <v>10</v>
+      </c>
+      <c r="D251">
+        <v>2</v>
+      </c>
+      <c r="E251">
+        <v>2</v>
+      </c>
+      <c r="F251">
+        <v>2</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
+        <v>20</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>5</v>
+      </c>
+      <c r="M251">
+        <v>4</v>
+      </c>
+      <c r="N251">
+        <v>5</v>
+      </c>
+      <c r="O251">
+        <v>7</v>
+      </c>
+      <c r="P251">
+        <v>1</v>
+      </c>
+      <c r="Q251">
+        <v>0</v>
+      </c>
+      <c r="R251">
+        <v>5</v>
+      </c>
+      <c r="S251">
+        <v>1</v>
+      </c>
+      <c r="T251">
+        <v>1</v>
+      </c>
+      <c r="U251">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>17</v>
+      </c>
+      <c r="D252">
+        <v>5</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>4</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>2</v>
+      </c>
+      <c r="I252">
+        <v>21</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>1</v>
+      </c>
+      <c r="M252">
+        <v>3</v>
+      </c>
+      <c r="N252">
+        <v>10</v>
+      </c>
+      <c r="O252">
+        <v>9</v>
+      </c>
+      <c r="P252">
+        <v>0</v>
+      </c>
+      <c r="Q252">
+        <v>0</v>
+      </c>
+      <c r="R252">
         <v>6</v>
       </c>
-      <c r="J250">
-        <v>0</v>
-      </c>
-      <c r="K250">
-        <v>0</v>
-      </c>
-      <c r="L250">
-        <v>0</v>
-      </c>
-      <c r="M250">
-        <v>1</v>
-      </c>
-      <c r="N250">
-        <v>4</v>
-      </c>
-      <c r="O250">
-        <v>0</v>
-      </c>
-      <c r="P250">
-        <v>0</v>
-      </c>
-      <c r="Q250">
-        <v>0</v>
-      </c>
-      <c r="R250">
-        <v>1</v>
-      </c>
-      <c r="S250">
-        <v>0</v>
-      </c>
-      <c r="T250">
-        <v>0</v>
-      </c>
-      <c r="U250">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A251" s="3" t="s">
+      <c r="S252">
+        <v>0</v>
+      </c>
+      <c r="T252">
+        <v>1</v>
+      </c>
+      <c r="U252">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>2</v>
+      </c>
+      <c r="D253">
+        <v>6</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
+      </c>
+      <c r="H253">
+        <v>1</v>
+      </c>
+      <c r="I253">
+        <v>6</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>1</v>
+      </c>
+      <c r="M253">
+        <v>2</v>
+      </c>
+      <c r="N253">
+        <v>7</v>
+      </c>
+      <c r="O253">
+        <v>2</v>
+      </c>
+      <c r="P253">
+        <v>0</v>
+      </c>
+      <c r="Q253">
+        <v>1</v>
+      </c>
+      <c r="R253">
+        <v>2</v>
+      </c>
+      <c r="S253">
+        <v>0</v>
+      </c>
+      <c r="T253">
+        <v>1</v>
+      </c>
+      <c r="U253">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/source-data/spain/spain_covid_source_latest.xlsx
+++ b/source-data/spain/spain_covid_source_latest.xlsx
@@ -84,13 +84,16 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 435 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 606 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-C0A]d\-mmm;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,7 +142,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="38">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -178,6 +181,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -188,7 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="38">
+  <cellStyles count="44">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="style1593174781075" xfId="1"/>
     <cellStyle name="style1593174781248" xfId="2"/>
@@ -227,6 +236,12 @@
     <cellStyle name="style1601472990730" xfId="36"/>
     <cellStyle name="style1601472990774" xfId="34"/>
     <cellStyle name="style1601472990793" xfId="37"/>
+    <cellStyle name="style1605624094141" xfId="38"/>
+    <cellStyle name="style1605624094165" xfId="41"/>
+    <cellStyle name="style1605624094214" xfId="39"/>
+    <cellStyle name="style1605624094234" xfId="42"/>
+    <cellStyle name="style1605624094465" xfId="40"/>
+    <cellStyle name="style1605624094484" xfId="43"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -528,11 +543,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U254"/>
+  <dimension ref="A1:U281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A254" sqref="A254"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2403,13 +2418,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2474,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2507,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -2539,7 +2554,7 @@
         <v>2</v>
       </c>
       <c r="J31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2572,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="U31" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -2604,7 +2619,7 @@
         <v>5</v>
       </c>
       <c r="J32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2619,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="O32">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2728,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I34">
         <v>11</v>
@@ -2740,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M34">
         <v>2</v>
@@ -2767,7 +2782,7 @@
         <v>2</v>
       </c>
       <c r="U34" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -2855,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>23</v>
@@ -2864,13 +2879,13 @@
         <v>13</v>
       </c>
       <c r="J36">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M36">
         <v>2</v>
@@ -2897,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -2929,7 +2944,7 @@
         <v>19</v>
       </c>
       <c r="J37">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2944,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="O37">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -2962,7 +2977,7 @@
         <v>4</v>
       </c>
       <c r="U37" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -2985,16 +3000,16 @@
         <v>3</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I38">
         <v>20</v>
       </c>
       <c r="J38">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3009,13 +3024,13 @@
         <v>5</v>
       </c>
       <c r="O38">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38">
         <v>5</v>
@@ -3027,7 +3042,7 @@
         <v>12</v>
       </c>
       <c r="U38" s="2">
-        <v>418</v>
+        <v>428</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -3053,13 +3068,13 @@
         <v>3</v>
       </c>
       <c r="H39">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39">
         <v>38</v>
       </c>
       <c r="J39">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3092,7 +3107,7 @@
         <v>9</v>
       </c>
       <c r="U39" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -3118,13 +3133,13 @@
         <v>2</v>
       </c>
       <c r="H40">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I40">
         <v>37</v>
       </c>
       <c r="J40">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3139,13 +3154,13 @@
         <v>4</v>
       </c>
       <c r="O40">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R40">
         <v>9</v>
@@ -3157,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="U40" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -3183,19 +3198,19 @@
         <v>4</v>
       </c>
       <c r="H41">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I41">
         <v>55</v>
       </c>
       <c r="J41">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M41">
         <v>10</v>
@@ -3204,7 +3219,7 @@
         <v>5</v>
       </c>
       <c r="O41">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -3222,7 +3237,7 @@
         <v>9</v>
       </c>
       <c r="U41" s="2">
-        <v>659</v>
+        <v>679</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -3248,22 +3263,22 @@
         <v>5</v>
       </c>
       <c r="H42">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I42">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J42">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N42">
         <v>7</v>
@@ -3275,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R42">
         <v>10</v>
@@ -3287,7 +3302,7 @@
         <v>6</v>
       </c>
       <c r="U42" s="2">
-        <v>707</v>
+        <v>713</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -3316,10 +3331,10 @@
         <v>104</v>
       </c>
       <c r="I43">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J43">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -3334,13 +3349,13 @@
         <v>7</v>
       </c>
       <c r="O43">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P43">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R43">
         <v>12</v>
@@ -3352,7 +3367,7 @@
         <v>13</v>
       </c>
       <c r="U43" s="2">
-        <v>782</v>
+        <v>809</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -3360,7 +3375,7 @@
         <v>43916</v>
       </c>
       <c r="B44">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44">
         <v>19</v>
@@ -3369,28 +3384,28 @@
         <v>10</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44">
         <v>9</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H44">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I44">
         <v>73</v>
       </c>
       <c r="J44">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M44">
         <v>16</v>
@@ -3399,13 +3414,13 @@
         <v>9</v>
       </c>
       <c r="O44">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P44">
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R44">
         <v>17</v>
@@ -3417,7 +3432,7 @@
         <v>9</v>
       </c>
       <c r="U44" s="2">
-        <v>843</v>
+        <v>853</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -3434,43 +3449,43 @@
         <v>5</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F45">
         <v>10</v>
       </c>
       <c r="G45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H45">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I45">
         <v>62</v>
       </c>
       <c r="J45">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
       <c r="L45">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>11</v>
       </c>
       <c r="O45">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P45">
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R45">
         <v>12</v>
@@ -3482,7 +3497,7 @@
         <v>6</v>
       </c>
       <c r="U45" s="2">
-        <v>877</v>
+        <v>900</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
@@ -3490,7 +3505,7 @@
         <v>43918</v>
       </c>
       <c r="B46">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>15</v>
@@ -3505,7 +3520,7 @@
         <v>5</v>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H46">
         <v>104</v>
@@ -3514,28 +3529,28 @@
         <v>63</v>
       </c>
       <c r="J46">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N46">
         <v>19</v>
       </c>
       <c r="O46">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P46">
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R46">
         <v>22</v>
@@ -3547,7 +3562,7 @@
         <v>6</v>
       </c>
       <c r="U46" s="2">
-        <v>814</v>
+        <v>832</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
@@ -3579,13 +3594,13 @@
         <v>88</v>
       </c>
       <c r="J47">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M47">
         <v>16</v>
@@ -3594,13 +3609,13 @@
         <v>11</v>
       </c>
       <c r="O47">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R47">
         <v>13</v>
@@ -3612,7 +3627,7 @@
         <v>7</v>
       </c>
       <c r="U47" s="2">
-        <v>788</v>
+        <v>800</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
@@ -3638,13 +3653,13 @@
         <v>15</v>
       </c>
       <c r="H48">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I48">
         <v>81</v>
       </c>
       <c r="J48">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3656,16 +3671,16 @@
         <v>23</v>
       </c>
       <c r="N48">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O48">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P48">
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R48">
         <v>15</v>
@@ -3677,7 +3692,7 @@
         <v>10</v>
       </c>
       <c r="U48" s="2">
-        <v>888</v>
+        <v>906</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
@@ -3700,37 +3715,37 @@
         <v>7</v>
       </c>
       <c r="G49">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H49">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I49">
         <v>76</v>
       </c>
       <c r="J49">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M49">
         <v>17</v>
       </c>
       <c r="N49">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O49">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P49">
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R49">
         <v>15</v>
@@ -3742,7 +3757,7 @@
         <v>13</v>
       </c>
       <c r="U49" s="2">
-        <v>870</v>
+        <v>889</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
@@ -3765,37 +3780,37 @@
         <v>7</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H50">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I50">
         <v>93</v>
       </c>
       <c r="J50">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M50">
         <v>20</v>
       </c>
       <c r="N50">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O50">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P50">
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R50">
         <v>11</v>
@@ -3807,7 +3822,7 @@
         <v>6</v>
       </c>
       <c r="U50" s="2">
-        <v>868</v>
+        <v>887</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
@@ -3830,37 +3845,37 @@
         <v>7</v>
       </c>
       <c r="G51">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H51">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I51">
         <v>69</v>
       </c>
       <c r="J51">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M51">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N51">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O51">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P51">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R51">
         <v>13</v>
@@ -3872,7 +3887,7 @@
         <v>15</v>
       </c>
       <c r="U51" s="2">
-        <v>814</v>
+        <v>840</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
@@ -3895,22 +3910,22 @@
         <v>5</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H52">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I52">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J52">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="L52">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M52">
         <v>17</v>
@@ -3919,13 +3934,13 @@
         <v>27</v>
       </c>
       <c r="O52">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P52">
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R52">
         <v>18</v>
@@ -3937,7 +3952,7 @@
         <v>16</v>
       </c>
       <c r="U52" s="2">
-        <v>759</v>
+        <v>774</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
@@ -3960,7 +3975,7 @@
         <v>3</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H53">
         <v>94</v>
@@ -3969,28 +3984,28 @@
         <v>89</v>
       </c>
       <c r="J53">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M53">
         <v>11</v>
       </c>
       <c r="N53">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O53">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="P53">
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R53">
         <v>7</v>
@@ -4002,7 +4017,7 @@
         <v>11</v>
       </c>
       <c r="U53" s="2">
-        <v>708</v>
+        <v>732</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
@@ -4025,22 +4040,22 @@
         <v>2</v>
       </c>
       <c r="G54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H54">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I54">
         <v>78</v>
       </c>
       <c r="J54">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M54">
         <v>14</v>
@@ -4049,13 +4064,13 @@
         <v>27</v>
       </c>
       <c r="O54">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="P54">
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R54">
         <v>19</v>
@@ -4067,7 +4082,7 @@
         <v>11</v>
       </c>
       <c r="U54" s="2">
-        <v>724</v>
+        <v>734</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
@@ -4099,13 +4114,13 @@
         <v>66</v>
       </c>
       <c r="J55">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="L55">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M55">
         <v>18</v>
@@ -4114,13 +4129,13 @@
         <v>16</v>
       </c>
       <c r="O55">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P55">
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R55">
         <v>16</v>
@@ -4132,7 +4147,7 @@
         <v>14</v>
       </c>
       <c r="U55" s="2">
-        <v>733</v>
+        <v>752</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
@@ -4149,22 +4164,22 @@
         <v>6</v>
       </c>
       <c r="E56">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H56">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I56">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J56">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -4179,13 +4194,13 @@
         <v>28</v>
       </c>
       <c r="O56">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P56">
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R56">
         <v>20</v>
@@ -4197,7 +4212,7 @@
         <v>15</v>
       </c>
       <c r="U56" s="2">
-        <v>713</v>
+        <v>730</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
@@ -4220,16 +4235,16 @@
         <v>4</v>
       </c>
       <c r="G57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H57">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I57">
         <v>68</v>
       </c>
       <c r="J57">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -4244,13 +4259,13 @@
         <v>12</v>
       </c>
       <c r="O57">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P57">
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R57">
         <v>12</v>
@@ -4262,7 +4277,7 @@
         <v>15</v>
       </c>
       <c r="U57" s="2">
-        <v>713</v>
+        <v>736</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
@@ -4282,19 +4297,19 @@
         <v>5</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H58">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I58">
         <v>82</v>
       </c>
       <c r="J58">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -4309,13 +4324,13 @@
         <v>22</v>
       </c>
       <c r="O58">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R58">
         <v>17</v>
@@ -4327,7 +4342,7 @@
         <v>7</v>
       </c>
       <c r="U58" s="2">
-        <v>642</v>
+        <v>664</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
@@ -4344,13 +4359,13 @@
         <v>5</v>
       </c>
       <c r="E59">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H59">
         <v>54</v>
@@ -4359,7 +4374,7 @@
         <v>63</v>
       </c>
       <c r="J59">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -4374,13 +4389,13 @@
         <v>31</v>
       </c>
       <c r="O59">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P59">
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R59">
         <v>13</v>
@@ -4392,7 +4407,7 @@
         <v>9</v>
       </c>
       <c r="U59" s="2">
-        <v>643</v>
+        <v>669</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
@@ -4400,13 +4415,13 @@
         <v>43932</v>
       </c>
       <c r="B60">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C60">
         <v>33</v>
       </c>
       <c r="D60">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E60">
         <v>5</v>
@@ -4415,7 +4430,7 @@
         <v>2</v>
       </c>
       <c r="G60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H60">
         <v>56</v>
@@ -4424,19 +4439,19 @@
         <v>73</v>
       </c>
       <c r="J60">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N60">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O60">
         <v>139</v>
@@ -4445,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R60">
         <v>19</v>
@@ -4457,7 +4472,7 @@
         <v>4</v>
       </c>
       <c r="U60" s="2">
-        <v>593</v>
+        <v>623</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
@@ -4480,28 +4495,28 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H61">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I61">
         <v>63</v>
       </c>
       <c r="J61">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
       <c r="L61">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M61">
         <v>11</v>
       </c>
       <c r="N61">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O61">
         <v>123</v>
@@ -4510,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R61">
         <v>11</v>
@@ -4522,7 +4537,7 @@
         <v>5</v>
       </c>
       <c r="U61" s="2">
-        <v>521</v>
+        <v>541</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
@@ -4539,13 +4554,13 @@
         <v>8</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F62">
         <v>3</v>
       </c>
       <c r="G62">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H62">
         <v>54</v>
@@ -4554,7 +4569,7 @@
         <v>56</v>
       </c>
       <c r="J62">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -4563,19 +4578,19 @@
         <v>35</v>
       </c>
       <c r="M62">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N62">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O62">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P62">
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R62">
         <v>22</v>
@@ -4587,7 +4602,7 @@
         <v>12</v>
       </c>
       <c r="U62" s="2">
-        <v>563</v>
+        <v>585</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
@@ -4595,7 +4610,7 @@
         <v>43935</v>
       </c>
       <c r="B63">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C63">
         <v>29</v>
@@ -4619,7 +4634,7 @@
         <v>60</v>
       </c>
       <c r="J63">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -4634,13 +4649,13 @@
         <v>16</v>
       </c>
       <c r="O63">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P63">
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R63">
         <v>11</v>
@@ -4652,7 +4667,7 @@
         <v>11</v>
       </c>
       <c r="U63" s="2">
-        <v>575</v>
+        <v>602</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
@@ -4678,19 +4693,19 @@
         <v>6</v>
       </c>
       <c r="H64">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I64">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J64">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="K64">
         <v>0</v>
       </c>
       <c r="L64">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M64">
         <v>12</v>
@@ -4699,7 +4714,7 @@
         <v>12</v>
       </c>
       <c r="O64">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -4717,7 +4732,7 @@
         <v>8</v>
       </c>
       <c r="U64" s="2">
-        <v>526</v>
+        <v>551</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
@@ -4734,22 +4749,22 @@
         <v>10</v>
       </c>
       <c r="E65">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F65">
         <v>3</v>
       </c>
       <c r="G65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H65">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I65">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J65">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -4764,13 +4779,13 @@
         <v>11</v>
       </c>
       <c r="O65">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P65">
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R65">
         <v>10</v>
@@ -4782,7 +4797,7 @@
         <v>8</v>
       </c>
       <c r="U65" s="2">
-        <v>463</v>
+        <v>482</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
@@ -4805,16 +4820,16 @@
         <v>3</v>
       </c>
       <c r="G66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H66">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I66">
         <v>48</v>
       </c>
       <c r="J66">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -4829,13 +4844,13 @@
         <v>12</v>
       </c>
       <c r="O66">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P66">
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R66">
         <v>14</v>
@@ -4847,7 +4862,7 @@
         <v>8</v>
       </c>
       <c r="U66" s="2">
-        <v>476</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
@@ -4855,7 +4870,7 @@
         <v>43939</v>
       </c>
       <c r="B67">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C67">
         <v>17</v>
@@ -4870,16 +4885,16 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H67">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I67">
         <v>48</v>
       </c>
       <c r="J67">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -4894,13 +4909,13 @@
         <v>19</v>
       </c>
       <c r="O67">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R67">
         <v>14</v>
@@ -4912,7 +4927,7 @@
         <v>5</v>
       </c>
       <c r="U67" s="2">
-        <v>410</v>
+        <v>434</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
@@ -4938,13 +4953,13 @@
         <v>4</v>
       </c>
       <c r="H68">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I68">
         <v>37</v>
       </c>
       <c r="J68">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -4953,19 +4968,19 @@
         <v>15</v>
       </c>
       <c r="M68">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N68">
         <v>6</v>
       </c>
       <c r="O68">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R68">
         <v>11</v>
@@ -4977,7 +4992,7 @@
         <v>8</v>
       </c>
       <c r="U68" s="2">
-        <v>375</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
@@ -5006,10 +5021,10 @@
         <v>43</v>
       </c>
       <c r="I69">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J69">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -5024,7 +5039,7 @@
         <v>10</v>
       </c>
       <c r="O69">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -5042,7 +5057,7 @@
         <v>3</v>
       </c>
       <c r="U69" s="2">
-        <v>359</v>
+        <v>385</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
@@ -5065,16 +5080,16 @@
         <v>3</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H70">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I70">
         <v>41</v>
       </c>
       <c r="J70">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -5089,13 +5104,13 @@
         <v>14</v>
       </c>
       <c r="O70">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R70">
         <v>10</v>
@@ -5107,7 +5122,7 @@
         <v>5</v>
       </c>
       <c r="U70" s="2">
-        <v>396</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
@@ -5136,10 +5151,10 @@
         <v>30</v>
       </c>
       <c r="I71">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J71">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -5160,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71">
         <v>8</v>
@@ -5172,7 +5187,7 @@
         <v>5</v>
       </c>
       <c r="U71" s="2">
-        <v>318</v>
+        <v>339</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
@@ -5198,13 +5213,13 @@
         <v>3</v>
       </c>
       <c r="H72">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I72">
         <v>49</v>
       </c>
       <c r="J72">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -5219,13 +5234,13 @@
         <v>6</v>
       </c>
       <c r="O72">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R72">
         <v>8</v>
@@ -5237,7 +5252,7 @@
         <v>2</v>
       </c>
       <c r="U72" s="2">
-        <v>300</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
@@ -5260,7 +5275,7 @@
         <v>4</v>
       </c>
       <c r="G73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H73">
         <v>31</v>
@@ -5269,7 +5284,7 @@
         <v>38</v>
       </c>
       <c r="J73">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -5278,7 +5293,7 @@
         <v>11</v>
       </c>
       <c r="M73">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N73">
         <v>13</v>
@@ -5290,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73">
         <v>6</v>
@@ -5302,7 +5317,7 @@
         <v>5</v>
       </c>
       <c r="U73" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
@@ -5310,7 +5325,7 @@
         <v>43946</v>
       </c>
       <c r="B74">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C74">
         <v>10</v>
@@ -5319,13 +5334,13 @@
         <v>8</v>
       </c>
       <c r="E74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H74">
         <v>28</v>
@@ -5334,7 +5349,7 @@
         <v>35</v>
       </c>
       <c r="J74">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -5349,13 +5364,13 @@
         <v>8</v>
       </c>
       <c r="O74">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74">
         <v>6</v>
@@ -5367,7 +5382,7 @@
         <v>3</v>
       </c>
       <c r="U74" s="2">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
@@ -5384,22 +5399,22 @@
         <v>5</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H75">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I75">
         <v>29</v>
       </c>
       <c r="J75">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -5408,7 +5423,7 @@
         <v>13</v>
       </c>
       <c r="M75">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N75">
         <v>6</v>
@@ -5420,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R75">
         <v>3</v>
@@ -5432,7 +5447,7 @@
         <v>5</v>
       </c>
       <c r="U75" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
@@ -5458,13 +5473,13 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I76">
         <v>32</v>
       </c>
       <c r="J76">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -5479,7 +5494,7 @@
         <v>9</v>
       </c>
       <c r="O76">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -5497,7 +5512,7 @@
         <v>4</v>
       </c>
       <c r="U76" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
@@ -5520,16 +5535,16 @@
         <v>1</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I77">
         <v>28</v>
       </c>
       <c r="J77">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -5562,7 +5577,7 @@
         <v>1</v>
       </c>
       <c r="U77" s="2">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
@@ -5588,13 +5603,13 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I78">
         <v>23</v>
       </c>
       <c r="J78">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -5609,7 +5624,7 @@
         <v>3</v>
       </c>
       <c r="O78">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -5627,7 +5642,7 @@
         <v>2</v>
       </c>
       <c r="U78" s="2">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
@@ -5647,25 +5662,25 @@
         <v>4</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I79">
         <v>32</v>
       </c>
       <c r="J79">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K79">
         <v>0</v>
       </c>
       <c r="L79">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M79">
         <v>2</v>
@@ -5674,13 +5689,13 @@
         <v>8</v>
       </c>
       <c r="O79">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P79">
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R79">
         <v>3</v>
@@ -5692,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="U79" s="2">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
@@ -5724,7 +5739,7 @@
         <v>17</v>
       </c>
       <c r="J80">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -5733,19 +5748,19 @@
         <v>11</v>
       </c>
       <c r="M80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N80">
         <v>4</v>
       </c>
       <c r="O80">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P80">
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R80">
         <v>5</v>
@@ -5757,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="U80" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
@@ -5765,7 +5780,7 @@
         <v>43953</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81">
         <v>6</v>
@@ -5789,7 +5804,7 @@
         <v>32</v>
       </c>
       <c r="J81">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -5804,13 +5819,13 @@
         <v>6</v>
       </c>
       <c r="O81">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P81">
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R81">
         <v>3</v>
@@ -5822,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="U81" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
@@ -5830,7 +5845,7 @@
         <v>43954</v>
       </c>
       <c r="B82">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82">
         <v>6</v>
@@ -5854,7 +5869,7 @@
         <v>18</v>
       </c>
       <c r="J82">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -5887,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="U82" s="2">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
@@ -5913,13 +5928,13 @@
         <v>2</v>
       </c>
       <c r="H83">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I83">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J83">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -5934,7 +5949,7 @@
         <v>4</v>
       </c>
       <c r="O83">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -5952,7 +5967,7 @@
         <v>1</v>
       </c>
       <c r="U83" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
@@ -5981,10 +5996,10 @@
         <v>21</v>
       </c>
       <c r="I84">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J84">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -5993,19 +6008,19 @@
         <v>8</v>
       </c>
       <c r="M84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N84">
         <v>6</v>
       </c>
       <c r="O84">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P84">
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R84">
         <v>4</v>
@@ -6017,7 +6032,7 @@
         <v>1</v>
       </c>
       <c r="U84" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
@@ -6040,16 +6055,16 @@
         <v>4</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I85">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J85">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -6058,13 +6073,13 @@
         <v>10</v>
       </c>
       <c r="M85">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N85">
         <v>3</v>
       </c>
       <c r="O85">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -6079,10 +6094,10 @@
         <v>5</v>
       </c>
       <c r="T85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U85" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
@@ -6090,7 +6105,7 @@
         <v>43958</v>
       </c>
       <c r="B86">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86">
         <v>10</v>
@@ -6114,7 +6129,7 @@
         <v>14</v>
       </c>
       <c r="J86">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -6129,13 +6144,13 @@
         <v>1</v>
       </c>
       <c r="O86">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="P86">
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R86">
         <v>4</v>
@@ -6147,7 +6162,7 @@
         <v>4</v>
       </c>
       <c r="U86" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -6173,13 +6188,13 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I87">
         <v>19</v>
       </c>
       <c r="J87">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -6212,7 +6227,7 @@
         <v>2</v>
       </c>
       <c r="U87" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
@@ -6244,7 +6259,7 @@
         <v>9</v>
       </c>
       <c r="J88">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -6253,13 +6268,13 @@
         <v>8</v>
       </c>
       <c r="M88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N88">
         <v>1</v>
       </c>
       <c r="O88">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P88">
         <v>0</v>
@@ -6277,7 +6292,7 @@
         <v>2</v>
       </c>
       <c r="U88" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -6303,13 +6318,13 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I89">
         <v>15</v>
       </c>
       <c r="J89">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -6324,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="O89">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P89">
         <v>0</v>
@@ -6342,7 +6357,7 @@
         <v>1</v>
       </c>
       <c r="U89" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6350,7 +6365,7 @@
         <v>43962</v>
       </c>
       <c r="B90" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C90" s="5">
         <v>4</v>
@@ -6368,13 +6383,13 @@
         <v>1</v>
       </c>
       <c r="H90" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I90" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J90" s="5">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K90" s="5">
         <v>0</v>
@@ -6383,13 +6398,13 @@
         <v>7</v>
       </c>
       <c r="M90" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N90" s="5">
         <v>1</v>
       </c>
       <c r="O90" s="5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P90" s="5">
         <v>0</v>
@@ -6407,7 +6422,7 @@
         <v>1</v>
       </c>
       <c r="U90" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
@@ -6433,13 +6448,13 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I91">
         <v>18</v>
       </c>
       <c r="J91">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -6460,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R91">
         <v>1</v>
@@ -6472,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="U91" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
@@ -6498,28 +6513,28 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I92">
         <v>8</v>
       </c>
       <c r="J92">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K92">
         <v>0</v>
       </c>
       <c r="L92">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N92">
         <v>3</v>
       </c>
       <c r="O92">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -6566,10 +6581,10 @@
         <v>8</v>
       </c>
       <c r="I93">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J93">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -6584,13 +6599,13 @@
         <v>0</v>
       </c>
       <c r="O93">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P93">
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -6634,7 +6649,7 @@
         <v>6</v>
       </c>
       <c r="J94">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -6643,13 +6658,13 @@
         <v>2</v>
       </c>
       <c r="M94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N94">
         <v>1</v>
       </c>
       <c r="O94">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -6667,7 +6682,7 @@
         <v>1</v>
       </c>
       <c r="U94" s="2">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
@@ -6690,7 +6705,7 @@
         <v>2</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95">
         <v>6</v>
@@ -6714,7 +6729,7 @@
         <v>1</v>
       </c>
       <c r="O95">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -6732,7 +6747,7 @@
         <v>2</v>
       </c>
       <c r="U95" s="2">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
@@ -6758,13 +6773,13 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I96">
         <v>8</v>
       </c>
       <c r="J96">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -6779,13 +6794,13 @@
         <v>1</v>
       </c>
       <c r="O96">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P96">
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R96">
         <v>0</v>
@@ -6797,7 +6812,7 @@
         <v>1</v>
       </c>
       <c r="U96" s="2">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
@@ -6805,7 +6820,7 @@
         <v>43969</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -6829,7 +6844,7 @@
         <v>6</v>
       </c>
       <c r="J97">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -6838,13 +6853,13 @@
         <v>4</v>
       </c>
       <c r="M97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N97">
         <v>0</v>
       </c>
       <c r="O97">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -6862,7 +6877,7 @@
         <v>1</v>
       </c>
       <c r="U97" s="2">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
@@ -6885,16 +6900,16 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J98">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -6909,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="O98">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -6927,7 +6942,7 @@
         <v>3</v>
       </c>
       <c r="U98" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
@@ -6959,7 +6974,7 @@
         <v>5</v>
       </c>
       <c r="J99">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -6974,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="O99">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -6992,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="U99" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
@@ -7000,7 +7015,7 @@
         <v>43972</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -7012,19 +7027,19 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I100">
         <v>7</v>
       </c>
       <c r="J100">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -7039,13 +7054,13 @@
         <v>2</v>
       </c>
       <c r="O100">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P100">
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R100">
         <v>0</v>
@@ -7057,7 +7072,7 @@
         <v>3</v>
       </c>
       <c r="U100" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
@@ -7065,7 +7080,7 @@
         <v>43973</v>
       </c>
       <c r="B101">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -7080,16 +7095,16 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>10</v>
       </c>
       <c r="I101">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J101">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -7104,7 +7119,7 @@
         <v>1</v>
       </c>
       <c r="O101">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P101">
         <v>0</v>
@@ -7122,7 +7137,7 @@
         <v>1</v>
       </c>
       <c r="U101" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
@@ -7154,13 +7169,13 @@
         <v>5</v>
       </c>
       <c r="J102">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K102">
         <v>0</v>
       </c>
       <c r="L102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -7169,7 +7184,7 @@
         <v>1</v>
       </c>
       <c r="O102">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -7187,7 +7202,7 @@
         <v>1</v>
       </c>
       <c r="U102" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
@@ -7219,7 +7234,7 @@
         <v>5</v>
       </c>
       <c r="J103">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -7228,13 +7243,13 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N103">
         <v>1</v>
       </c>
       <c r="O103">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -7252,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="U103" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
@@ -7284,13 +7299,13 @@
         <v>7</v>
       </c>
       <c r="J104">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K104">
         <v>0</v>
       </c>
       <c r="L104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M104">
         <v>1</v>
@@ -7299,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="O104">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="P104">
         <v>0</v>
@@ -7317,7 +7332,7 @@
         <v>0</v>
       </c>
       <c r="U104" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
@@ -7325,7 +7340,7 @@
         <v>43977</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -7349,7 +7364,7 @@
         <v>8</v>
       </c>
       <c r="J105">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -7364,7 +7379,7 @@
         <v>1</v>
       </c>
       <c r="O105">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -7382,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="U105" s="2">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
@@ -7414,7 +7429,7 @@
         <v>8</v>
       </c>
       <c r="J106">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -7429,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="O106">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -7447,7 +7462,7 @@
         <v>0</v>
       </c>
       <c r="U106" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
@@ -7479,7 +7494,7 @@
         <v>5</v>
       </c>
       <c r="J107">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -7494,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="O107">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P107">
         <v>0</v>
@@ -7512,7 +7527,7 @@
         <v>0</v>
       </c>
       <c r="U107" s="2">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
@@ -7544,7 +7559,7 @@
         <v>7</v>
       </c>
       <c r="J108">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -7559,7 +7574,7 @@
         <v>1</v>
       </c>
       <c r="O108">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P108">
         <v>0</v>
@@ -7577,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="U108" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
@@ -7606,7 +7621,7 @@
         <v>5</v>
       </c>
       <c r="I109">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J109">
         <v>7</v>
@@ -7624,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P109">
         <v>0</v>
@@ -7642,7 +7657,7 @@
         <v>1</v>
       </c>
       <c r="U109" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
@@ -7671,11 +7686,11 @@
         <v>3</v>
       </c>
       <c r="I110">
+        <v>9</v>
+      </c>
+      <c r="J110">
         <v>8</v>
       </c>
-      <c r="J110">
-        <v>6</v>
-      </c>
       <c r="K110">
         <v>0</v>
       </c>
@@ -7683,13 +7698,13 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N110">
         <v>0</v>
       </c>
       <c r="O110">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P110">
         <v>0</v>
@@ -7707,7 +7722,7 @@
         <v>0</v>
       </c>
       <c r="U110" s="2">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
@@ -7727,19 +7742,19 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111">
         <v>5</v>
       </c>
       <c r="J111">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -7754,7 +7769,7 @@
         <v>1</v>
       </c>
       <c r="O111">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -7772,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="U111" s="2">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
@@ -7804,10 +7819,10 @@
         <v>6</v>
       </c>
       <c r="J112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112">
         <v>2</v>
@@ -7819,7 +7834,7 @@
         <v>1</v>
       </c>
       <c r="O112">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -7837,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="U112" s="2">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
@@ -7869,7 +7884,7 @@
         <v>4</v>
       </c>
       <c r="J113">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -7884,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="O113">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -7902,7 +7917,7 @@
         <v>1</v>
       </c>
       <c r="U113" s="2">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.25">
@@ -7910,7 +7925,7 @@
         <v>43986</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -7928,13 +7943,13 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I114">
         <v>7</v>
       </c>
       <c r="J114">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -7949,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="O114">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="P114">
         <v>0</v>
@@ -7967,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="U114" s="2">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
@@ -7999,7 +8014,7 @@
         <v>2</v>
       </c>
       <c r="J115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -8014,7 +8029,7 @@
         <v>0</v>
       </c>
       <c r="O115">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P115">
         <v>0</v>
@@ -8032,7 +8047,7 @@
         <v>1</v>
       </c>
       <c r="U115" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.25">
@@ -8064,7 +8079,7 @@
         <v>4</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -8079,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="O116">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="P116">
         <v>0</v>
@@ -8097,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="U116" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
@@ -8129,7 +8144,7 @@
         <v>7</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -8144,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="O117">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -8162,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="U117" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
@@ -8194,7 +8209,7 @@
         <v>7</v>
       </c>
       <c r="J118">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -8209,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="O118">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -8227,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="U118" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
@@ -8256,10 +8271,10 @@
         <v>0</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -8274,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="O119">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P119">
         <v>0</v>
@@ -8292,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="U119" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.25">
@@ -8303,7 +8318,7 @@
         <v>2</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -8339,7 +8354,7 @@
         <v>1</v>
       </c>
       <c r="O120">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P120">
         <v>0</v>
@@ -8357,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="U120" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
@@ -8386,10 +8401,10 @@
         <v>0</v>
       </c>
       <c r="I121">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -8404,7 +8419,7 @@
         <v>0</v>
       </c>
       <c r="O121">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="P121">
         <v>0</v>
@@ -8422,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="U121" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.25">
@@ -8451,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J122">
         <v>1</v>
@@ -8469,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="O122">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P122">
         <v>0</v>
@@ -8487,7 +8502,7 @@
         <v>0</v>
       </c>
       <c r="U122" s="2">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.25">
@@ -8498,7 +8513,7 @@
         <v>0</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -8513,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>3</v>
       </c>
       <c r="J123">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -8534,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="O123">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P123">
         <v>0</v>
@@ -8552,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="U123" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.25">
@@ -8578,13 +8593,13 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K124">
         <v>0</v>
@@ -8599,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P124">
         <v>0</v>
@@ -8617,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="U124" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.25">
@@ -8625,7 +8640,7 @@
         <v>43997</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -8646,10 +8661,10 @@
         <v>1</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J125">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K125">
         <v>0</v>
@@ -8664,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="O125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -8682,7 +8697,7 @@
         <v>0</v>
       </c>
       <c r="U125" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
@@ -8711,10 +8726,10 @@
         <v>0</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126">
         <v>0</v>
@@ -8729,7 +8744,7 @@
         <v>0</v>
       </c>
       <c r="O126">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P126">
         <v>0</v>
@@ -8747,7 +8762,7 @@
         <v>0</v>
       </c>
       <c r="U126" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.25">
@@ -8776,10 +8791,10 @@
         <v>0</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -8794,7 +8809,7 @@
         <v>0</v>
       </c>
       <c r="O127">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P127">
         <v>0</v>
@@ -8812,7 +8827,7 @@
         <v>0</v>
       </c>
       <c r="U127" s="2">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.25">
@@ -8841,7 +8856,7 @@
         <v>1</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -8859,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="O128">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P128">
         <v>0</v>
@@ -8877,7 +8892,7 @@
         <v>0</v>
       </c>
       <c r="U128" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
@@ -8885,7 +8900,7 @@
         <v>44001</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -8906,10 +8921,10 @@
         <v>0</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -8924,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O129">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P129">
         <v>0</v>
@@ -8942,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="U129" s="2">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.25">
@@ -8956,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -8971,10 +8986,10 @@
         <v>0</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K130">
         <v>0</v>
@@ -8989,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="O130">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P130">
         <v>0</v>
@@ -9007,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="U130" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.25">
@@ -9015,7 +9030,7 @@
         <v>44003</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -9036,7 +9051,7 @@
         <v>0</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J131">
         <v>1</v>
@@ -9054,7 +9069,7 @@
         <v>0</v>
       </c>
       <c r="O131">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P131">
         <v>0</v>
@@ -9072,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="U131" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.25">
@@ -9119,7 +9134,7 @@
         <v>0</v>
       </c>
       <c r="O132">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P132">
         <v>0</v>
@@ -9134,10 +9149,10 @@
         <v>0</v>
       </c>
       <c r="T132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U132" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.25">
@@ -9166,7 +9181,7 @@
         <v>1</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133">
         <v>1</v>
@@ -9175,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="L133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M133">
         <v>0</v>
@@ -9184,7 +9199,7 @@
         <v>0</v>
       </c>
       <c r="O133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P133">
         <v>0</v>
@@ -9202,7 +9217,7 @@
         <v>0</v>
       </c>
       <c r="U133" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.25">
@@ -9210,7 +9225,7 @@
         <v>44006</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -9231,16 +9246,16 @@
         <v>0</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134">
         <v>0</v>
       </c>
       <c r="L134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M134">
         <v>0</v>
@@ -9249,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="O134">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P134">
         <v>0</v>
@@ -9264,10 +9279,10 @@
         <v>0</v>
       </c>
       <c r="T134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U134" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.25">
@@ -9296,7 +9311,7 @@
         <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -9314,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="O135">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P135">
         <v>0</v>
@@ -9332,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="U135" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.25">
@@ -9349,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -9361,10 +9376,10 @@
         <v>1</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136">
         <v>0</v>
@@ -9397,7 +9412,7 @@
         <v>1</v>
       </c>
       <c r="U136" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.25">
@@ -9426,7 +9441,7 @@
         <v>0</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -9462,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="U137" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.25">
@@ -9491,16 +9506,16 @@
         <v>2</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138">
         <v>0</v>
       </c>
       <c r="L138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M138">
         <v>0</v>
@@ -9509,7 +9524,7 @@
         <v>0</v>
       </c>
       <c r="O138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P138">
         <v>0</v>
@@ -9527,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="U138" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
@@ -9535,7 +9550,7 @@
         <v>44011</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -9556,7 +9571,7 @@
         <v>1</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -9574,7 +9589,7 @@
         <v>0</v>
       </c>
       <c r="O139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P139">
         <v>0</v>
@@ -9592,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="U139" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.25">
@@ -9606,7 +9621,7 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -9621,10 +9636,10 @@
         <v>1</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -9639,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="O140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P140">
         <v>0</v>
@@ -9657,7 +9672,7 @@
         <v>0</v>
       </c>
       <c r="U140" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
@@ -9671,7 +9686,7 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -9686,7 +9701,7 @@
         <v>1</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -9710,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R141">
         <v>0</v>
@@ -9722,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="U141" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
@@ -9754,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142">
         <v>0</v>
@@ -9787,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="U142" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.25">
@@ -9869,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -9884,7 +9899,7 @@
         <v>1</v>
       </c>
       <c r="J144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K144">
         <v>0</v>
@@ -9914,10 +9929,10 @@
         <v>0</v>
       </c>
       <c r="T144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U144" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.25">
@@ -9993,7 +10008,7 @@
         <v>1</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -10047,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="U146" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.25">
@@ -10055,7 +10070,7 @@
         <v>44019</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -10079,7 +10094,7 @@
         <v>1</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147">
         <v>0</v>
@@ -10112,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="U147" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.25">
@@ -10120,7 +10135,7 @@
         <v>44020</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -10177,7 +10192,7 @@
         <v>0</v>
       </c>
       <c r="U148" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.25">
@@ -10324,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -10339,7 +10354,7 @@
         <v>1</v>
       </c>
       <c r="J151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K151">
         <v>0</v>
@@ -10372,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="U151" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.25">
@@ -10640,7 +10655,7 @@
         <v>44028</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -10697,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="U156" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.25">
@@ -10714,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -10762,7 +10777,7 @@
         <v>0</v>
       </c>
       <c r="U157" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.25">
@@ -11160,7 +11175,7 @@
         <v>44036</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -11217,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="U164" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.25">
@@ -11639,7 +11654,7 @@
         <v>0</v>
       </c>
       <c r="J171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K171">
         <v>0</v>
@@ -11672,7 +11687,7 @@
         <v>0</v>
       </c>
       <c r="U171" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.25">
@@ -11964,7 +11979,7 @@
         <v>0</v>
       </c>
       <c r="J176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K176">
         <v>0</v>
@@ -11997,7 +12012,7 @@
         <v>0</v>
       </c>
       <c r="U176" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.25">
@@ -12289,7 +12304,7 @@
         <v>0</v>
       </c>
       <c r="J181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K181">
         <v>0</v>
@@ -12322,7 +12337,7 @@
         <v>0</v>
       </c>
       <c r="U181" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.25">
@@ -12333,7 +12348,7 @@
         <v>1</v>
       </c>
       <c r="C182">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -12354,7 +12369,7 @@
         <v>1</v>
       </c>
       <c r="J182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K182">
         <v>0</v>
@@ -12375,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R182">
         <v>0</v>
@@ -12387,7 +12402,7 @@
         <v>0</v>
       </c>
       <c r="U182" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.25">
@@ -12576,13 +12591,13 @@
         <v>0</v>
       </c>
       <c r="S185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T185">
         <v>0</v>
       </c>
       <c r="U185" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.25">
@@ -12830,7 +12845,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R189">
         <v>0</v>
@@ -12842,7 +12857,7 @@
         <v>0</v>
       </c>
       <c r="U189">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.25">
@@ -12859,7 +12874,7 @@
         <v>0</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -12907,7 +12922,7 @@
         <v>0</v>
       </c>
       <c r="U190" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.25">
@@ -12924,7 +12939,7 @@
         <v>0</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
         <v>2</v>
@@ -12939,7 +12954,7 @@
         <v>1</v>
       </c>
       <c r="J191">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K191">
         <v>0</v>
@@ -12972,7 +12987,7 @@
         <v>0</v>
       </c>
       <c r="U191" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.25">
@@ -13004,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="J192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K192">
         <v>0</v>
@@ -13037,7 +13052,7 @@
         <v>1</v>
       </c>
       <c r="U192" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.25">
@@ -13134,7 +13149,7 @@
         <v>1</v>
       </c>
       <c r="J194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K194">
         <v>0</v>
@@ -13167,7 +13182,7 @@
         <v>0</v>
       </c>
       <c r="U194" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.25">
@@ -13178,7 +13193,7 @@
         <v>6</v>
       </c>
       <c r="C195">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -13232,7 +13247,7 @@
         <v>1</v>
       </c>
       <c r="U195">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
@@ -13329,7 +13344,7 @@
         <v>4</v>
       </c>
       <c r="J197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K197">
         <v>0</v>
@@ -13362,7 +13377,7 @@
         <v>0</v>
       </c>
       <c r="U197">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.25">
@@ -13394,7 +13409,7 @@
         <v>4</v>
       </c>
       <c r="J198">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K198">
         <v>0</v>
@@ -13415,7 +13430,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R198">
         <v>0</v>
@@ -13427,7 +13442,7 @@
         <v>0</v>
       </c>
       <c r="U198">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.25">
@@ -13444,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="E199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -13459,7 +13474,7 @@
         <v>8</v>
       </c>
       <c r="J199">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K199">
         <v>1</v>
@@ -13492,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="U199">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.25">
@@ -13530,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="L200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M200">
         <v>1</v>
@@ -13557,7 +13572,7 @@
         <v>2</v>
       </c>
       <c r="U200">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.25">
@@ -13583,7 +13598,7 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I201">
         <v>4</v>
@@ -13622,7 +13637,7 @@
         <v>0</v>
       </c>
       <c r="U201">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
@@ -13648,7 +13663,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202">
         <v>8</v>
@@ -13687,7 +13702,7 @@
         <v>1</v>
       </c>
       <c r="U202">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.25">
@@ -13704,10 +13719,10 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -13719,7 +13734,7 @@
         <v>1</v>
       </c>
       <c r="J203">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K203">
         <v>0</v>
@@ -13740,7 +13755,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R203">
         <v>1</v>
@@ -13752,7 +13767,7 @@
         <v>1</v>
       </c>
       <c r="U203">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.25">
@@ -13870,7 +13885,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R205">
         <v>0</v>
@@ -13882,7 +13897,7 @@
         <v>1</v>
       </c>
       <c r="U205">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.25">
@@ -13893,7 +13908,7 @@
         <v>9</v>
       </c>
       <c r="C206">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -13935,7 +13950,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R206">
         <v>3</v>
@@ -13947,7 +13962,7 @@
         <v>0</v>
       </c>
       <c r="U206">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
@@ -13955,7 +13970,7 @@
         <v>44079</v>
       </c>
       <c r="B207">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C207">
         <v>2</v>
@@ -14012,7 +14027,7 @@
         <v>2</v>
       </c>
       <c r="U207">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.25">
@@ -14065,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R208">
         <v>1</v>
@@ -14077,7 +14092,7 @@
         <v>1</v>
       </c>
       <c r="U208">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.25">
@@ -14094,7 +14109,7 @@
         <v>1</v>
       </c>
       <c r="E209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F209">
         <v>2</v>
@@ -14109,7 +14124,7 @@
         <v>5</v>
       </c>
       <c r="J209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K209">
         <v>1</v>
@@ -14130,19 +14145,19 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R209">
         <v>0</v>
       </c>
       <c r="S209">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T209">
         <v>2</v>
       </c>
       <c r="U209">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
@@ -14174,7 +14189,7 @@
         <v>3</v>
       </c>
       <c r="J210">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K210">
         <v>0</v>
@@ -14207,7 +14222,7 @@
         <v>1</v>
       </c>
       <c r="U210">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
@@ -14227,7 +14242,7 @@
         <v>2</v>
       </c>
       <c r="F211">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -14236,10 +14251,10 @@
         <v>1</v>
       </c>
       <c r="I211">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J211">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K211">
         <v>1</v>
@@ -14260,7 +14275,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R211">
         <v>1</v>
@@ -14272,7 +14287,7 @@
         <v>2</v>
       </c>
       <c r="U211">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
@@ -14289,10 +14304,10 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F212">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -14304,7 +14319,7 @@
         <v>3</v>
       </c>
       <c r="J212">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K212">
         <v>0</v>
@@ -14325,7 +14340,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R212">
         <v>1</v>
@@ -14337,7 +14352,7 @@
         <v>2</v>
       </c>
       <c r="U212" s="6">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
@@ -14357,7 +14372,7 @@
         <v>1</v>
       </c>
       <c r="F213">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -14390,7 +14405,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R213">
         <v>1</v>
@@ -14402,7 +14417,7 @@
         <v>0</v>
       </c>
       <c r="U213" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
@@ -14455,7 +14470,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R214">
         <v>3</v>
@@ -14467,7 +14482,7 @@
         <v>0</v>
       </c>
       <c r="U214" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
@@ -14478,7 +14493,7 @@
         <v>14</v>
       </c>
       <c r="C215">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -14499,7 +14514,7 @@
         <v>7</v>
       </c>
       <c r="J215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K215">
         <v>0</v>
@@ -14520,7 +14535,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R215">
         <v>2</v>
@@ -14532,7 +14547,7 @@
         <v>0</v>
       </c>
       <c r="U215" s="2">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
@@ -14558,13 +14573,13 @@
         <v>0</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I216">
         <v>6</v>
       </c>
       <c r="J216">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K216">
         <v>0</v>
@@ -14585,19 +14600,19 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R216">
         <v>1</v>
       </c>
       <c r="S216">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T216">
         <v>3</v>
       </c>
       <c r="U216">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
@@ -14623,7 +14638,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I217">
         <v>8</v>
@@ -14650,19 +14665,19 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R217">
         <v>1</v>
       </c>
       <c r="S217">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T217">
         <v>2</v>
       </c>
       <c r="U217" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
@@ -14673,7 +14688,7 @@
         <v>11</v>
       </c>
       <c r="C218">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -14694,10 +14709,10 @@
         <v>4</v>
       </c>
       <c r="J218">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L218">
         <v>9</v>
@@ -14727,7 +14742,7 @@
         <v>3</v>
       </c>
       <c r="U218" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -14759,7 +14774,7 @@
         <v>10</v>
       </c>
       <c r="J219">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K219">
         <v>0</v>
@@ -14768,7 +14783,7 @@
         <v>5</v>
       </c>
       <c r="M219">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N219">
         <v>3</v>
@@ -14780,7 +14795,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R219">
         <v>3</v>
@@ -14792,7 +14807,7 @@
         <v>1</v>
       </c>
       <c r="U219" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
@@ -14815,7 +14830,7 @@
         <v>2</v>
       </c>
       <c r="G220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220">
         <v>6</v>
@@ -14824,7 +14839,7 @@
         <v>9</v>
       </c>
       <c r="J220">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K220">
         <v>0</v>
@@ -14857,7 +14872,7 @@
         <v>1</v>
       </c>
       <c r="U220" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
@@ -14865,7 +14880,7 @@
         <v>44093</v>
       </c>
       <c r="B221">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C221">
         <v>7</v>
@@ -14889,7 +14904,7 @@
         <v>7</v>
       </c>
       <c r="J221">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K221">
         <v>1</v>
@@ -14898,7 +14913,7 @@
         <v>2</v>
       </c>
       <c r="M221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N221">
         <v>6</v>
@@ -14910,7 +14925,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R221">
         <v>2</v>
@@ -14922,7 +14937,7 @@
         <v>4</v>
       </c>
       <c r="U221" s="2">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
@@ -14945,16 +14960,16 @@
         <v>1</v>
       </c>
       <c r="G222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H222">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I222">
         <v>10</v>
       </c>
       <c r="J222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K222">
         <v>0</v>
@@ -14963,13 +14978,13 @@
         <v>2</v>
       </c>
       <c r="M222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N222">
         <v>3</v>
       </c>
       <c r="O222">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P222">
         <v>0</v>
@@ -14987,7 +15002,7 @@
         <v>3</v>
       </c>
       <c r="U222" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
@@ -15007,7 +15022,7 @@
         <v>5</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -15019,7 +15034,7 @@
         <v>12</v>
       </c>
       <c r="J223">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K223">
         <v>0</v>
@@ -15028,19 +15043,19 @@
         <v>2</v>
       </c>
       <c r="M223">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N223">
         <v>1</v>
       </c>
       <c r="O223">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P223">
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R223">
         <v>5</v>
@@ -15052,7 +15067,7 @@
         <v>4</v>
       </c>
       <c r="U223">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
@@ -15084,7 +15099,7 @@
         <v>7</v>
       </c>
       <c r="J224">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K224">
         <v>0</v>
@@ -15105,7 +15120,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R224">
         <v>1</v>
@@ -15117,7 +15132,7 @@
         <v>2</v>
       </c>
       <c r="U224">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
@@ -15155,10 +15170,10 @@
         <v>0</v>
       </c>
       <c r="L225">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M225">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N225">
         <v>3</v>
@@ -15170,7 +15185,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R225">
         <v>0</v>
@@ -15182,7 +15197,7 @@
         <v>1</v>
       </c>
       <c r="U225">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
@@ -15214,7 +15229,7 @@
         <v>9</v>
       </c>
       <c r="J226">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K226">
         <v>0</v>
@@ -15235,7 +15250,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R226">
         <v>1</v>
@@ -15247,7 +15262,7 @@
         <v>1</v>
       </c>
       <c r="U226">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
@@ -15255,7 +15270,7 @@
         <v>44099</v>
       </c>
       <c r="B227">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C227">
         <v>5</v>
@@ -15270,7 +15285,7 @@
         <v>5</v>
       </c>
       <c r="G227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227">
         <v>4</v>
@@ -15279,7 +15294,7 @@
         <v>14</v>
       </c>
       <c r="J227">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K227">
         <v>0</v>
@@ -15300,19 +15315,19 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R227">
         <v>2</v>
       </c>
       <c r="S227">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T227">
         <v>1</v>
       </c>
       <c r="U227">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
@@ -15338,7 +15353,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I228">
         <v>7</v>
@@ -15365,19 +15380,19 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R228">
         <v>2</v>
       </c>
       <c r="S228">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T228">
         <v>1</v>
       </c>
       <c r="U228">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
@@ -15409,7 +15424,7 @@
         <v>13</v>
       </c>
       <c r="J229">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K229">
         <v>0</v>
@@ -15430,7 +15445,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R229">
         <v>4</v>
@@ -15442,7 +15457,7 @@
         <v>2</v>
       </c>
       <c r="U229">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
@@ -15450,10 +15465,10 @@
         <v>44102</v>
       </c>
       <c r="B230">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C230">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -15471,10 +15486,10 @@
         <v>21</v>
       </c>
       <c r="I230">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J230">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K230">
         <v>0</v>
@@ -15483,7 +15498,7 @@
         <v>5</v>
       </c>
       <c r="M230">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N230">
         <v>2</v>
@@ -15495,7 +15510,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R230">
         <v>2</v>
@@ -15507,7 +15522,7 @@
         <v>2</v>
       </c>
       <c r="U230">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
@@ -15515,7 +15530,7 @@
         <v>44103</v>
       </c>
       <c r="B231">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C231">
         <v>9</v>
@@ -15539,7 +15554,7 @@
         <v>10</v>
       </c>
       <c r="J231">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K231">
         <v>0</v>
@@ -15560,7 +15575,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R231">
         <v>3</v>
@@ -15572,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="U231">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
@@ -15580,7 +15595,7 @@
         <v>44104</v>
       </c>
       <c r="B232">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C232">
         <v>3</v>
@@ -15589,7 +15604,7 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -15604,7 +15619,7 @@
         <v>15</v>
       </c>
       <c r="J232">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K232">
         <v>0</v>
@@ -15613,7 +15628,7 @@
         <v>6</v>
       </c>
       <c r="M232">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N232">
         <v>5</v>
@@ -15625,19 +15640,19 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R232">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S232">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T232">
         <v>4</v>
       </c>
       <c r="U232">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
@@ -15654,7 +15669,7 @@
         <v>1</v>
       </c>
       <c r="E233">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F233">
         <v>2</v>
@@ -15663,13 +15678,13 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I233">
         <v>18</v>
       </c>
       <c r="J233">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K233">
         <v>0</v>
@@ -15684,7 +15699,7 @@
         <v>1</v>
       </c>
       <c r="O233">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P233">
         <v>0</v>
@@ -15702,7 +15717,7 @@
         <v>0</v>
       </c>
       <c r="U233">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
@@ -15710,7 +15725,7 @@
         <v>44106</v>
       </c>
       <c r="B234">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C234">
         <v>3</v>
@@ -15734,7 +15749,7 @@
         <v>15</v>
       </c>
       <c r="J234">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K234">
         <v>0</v>
@@ -15743,7 +15758,7 @@
         <v>3</v>
       </c>
       <c r="M234">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N234">
         <v>5</v>
@@ -15755,19 +15770,19 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R234">
         <v>4</v>
       </c>
       <c r="S234">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T234">
         <v>2</v>
       </c>
       <c r="U234">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
@@ -15775,7 +15790,7 @@
         <v>44107</v>
       </c>
       <c r="B235">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C235">
         <v>3</v>
@@ -15784,7 +15799,7 @@
         <v>0</v>
       </c>
       <c r="E235">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -15820,19 +15835,19 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R235">
         <v>1</v>
       </c>
       <c r="S235">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T235">
         <v>0</v>
       </c>
       <c r="U235">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.25">
@@ -15864,7 +15879,7 @@
         <v>8</v>
       </c>
       <c r="J236">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K236">
         <v>0</v>
@@ -15885,7 +15900,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R236">
         <v>2</v>
@@ -15897,7 +15912,7 @@
         <v>2</v>
       </c>
       <c r="U236">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.25">
@@ -15929,7 +15944,7 @@
         <v>15</v>
       </c>
       <c r="J237">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K237">
         <v>0</v>
@@ -15938,19 +15953,19 @@
         <v>3</v>
       </c>
       <c r="M237">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N237">
         <v>8</v>
       </c>
       <c r="O237">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P237">
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R237">
         <v>5</v>
@@ -15962,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="U237">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
@@ -15970,7 +15985,7 @@
         <v>44110</v>
       </c>
       <c r="B238">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C238">
         <v>13</v>
@@ -15994,7 +16009,7 @@
         <v>18</v>
       </c>
       <c r="J238">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K238">
         <v>0</v>
@@ -16009,25 +16024,25 @@
         <v>3</v>
       </c>
       <c r="O238">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P238">
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R238">
         <v>3</v>
       </c>
       <c r="S238">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T238">
         <v>0</v>
       </c>
       <c r="U238">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.25">
@@ -16035,13 +16050,13 @@
         <v>44111</v>
       </c>
       <c r="B239">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C239">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -16053,34 +16068,34 @@
         <v>0</v>
       </c>
       <c r="H239">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I239">
         <v>24</v>
       </c>
       <c r="J239">
+        <v>8</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>4</v>
+      </c>
+      <c r="M239">
+        <v>3</v>
+      </c>
+      <c r="N239">
+        <v>4</v>
+      </c>
+      <c r="O239">
+        <v>35</v>
+      </c>
+      <c r="P239">
+        <v>0</v>
+      </c>
+      <c r="Q239">
         <v>5</v>
-      </c>
-      <c r="K239">
-        <v>0</v>
-      </c>
-      <c r="L239">
-        <v>4</v>
-      </c>
-      <c r="M239">
-        <v>3</v>
-      </c>
-      <c r="N239">
-        <v>4</v>
-      </c>
-      <c r="O239">
-        <v>36</v>
-      </c>
-      <c r="P239">
-        <v>0</v>
-      </c>
-      <c r="Q239">
-        <v>1</v>
       </c>
       <c r="R239">
         <v>5</v>
@@ -16092,7 +16107,7 @@
         <v>0</v>
       </c>
       <c r="U239">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.25">
@@ -16100,10 +16115,10 @@
         <v>44112</v>
       </c>
       <c r="B240">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C240">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D240">
         <v>3</v>
@@ -16124,7 +16139,7 @@
         <v>15</v>
       </c>
       <c r="J240">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K240">
         <v>0</v>
@@ -16139,13 +16154,13 @@
         <v>3</v>
       </c>
       <c r="O240">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P240">
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R240">
         <v>6</v>
@@ -16157,7 +16172,7 @@
         <v>1</v>
       </c>
       <c r="U240">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.25">
@@ -16183,13 +16198,13 @@
         <v>2</v>
       </c>
       <c r="H241">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I241">
         <v>19</v>
       </c>
       <c r="J241">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K241">
         <v>1</v>
@@ -16204,13 +16219,13 @@
         <v>4</v>
       </c>
       <c r="O241">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P241">
         <v>2</v>
       </c>
       <c r="Q241">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R241">
         <v>4</v>
@@ -16222,7 +16237,7 @@
         <v>2</v>
       </c>
       <c r="U241">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.25">
@@ -16230,7 +16245,7 @@
         <v>44114</v>
       </c>
       <c r="B242">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C242">
         <v>4</v>
@@ -16251,16 +16266,16 @@
         <v>5</v>
       </c>
       <c r="I242">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J242">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K242">
         <v>0</v>
       </c>
       <c r="L242">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M242">
         <v>2</v>
@@ -16275,19 +16290,19 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R242">
         <v>2</v>
       </c>
       <c r="S242">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T242">
         <v>1</v>
       </c>
       <c r="U242">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="243" spans="1:21" x14ac:dyDescent="0.25">
@@ -16295,7 +16310,7 @@
         <v>44115</v>
       </c>
       <c r="B243">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C243">
         <v>3</v>
@@ -16319,16 +16334,16 @@
         <v>10</v>
       </c>
       <c r="J243">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K243">
         <v>0</v>
       </c>
       <c r="L243">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M243">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N243">
         <v>3</v>
@@ -16340,7 +16355,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R243">
         <v>2</v>
@@ -16349,10 +16364,10 @@
         <v>5</v>
       </c>
       <c r="T243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U243">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.25">
@@ -16360,10 +16375,10 @@
         <v>44116</v>
       </c>
       <c r="B244">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C244">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D244">
         <v>1</v>
@@ -16384,13 +16399,13 @@
         <v>17</v>
       </c>
       <c r="J244">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K244">
         <v>0</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M244">
         <v>3</v>
@@ -16399,16 +16414,16 @@
         <v>6</v>
       </c>
       <c r="O244">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P244">
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R244">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S244">
         <v>5</v>
@@ -16417,7 +16432,7 @@
         <v>1</v>
       </c>
       <c r="U244">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.25">
@@ -16425,7 +16440,7 @@
         <v>44117</v>
       </c>
       <c r="B245">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C245">
         <v>7</v>
@@ -16434,25 +16449,25 @@
         <v>4</v>
       </c>
       <c r="E245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F245">
         <v>2</v>
       </c>
       <c r="G245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I245">
         <v>19</v>
       </c>
       <c r="J245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L245">
         <v>2</v>
@@ -16464,25 +16479,25 @@
         <v>8</v>
       </c>
       <c r="O245">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P245">
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R245">
         <v>2</v>
       </c>
       <c r="S245">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T245">
         <v>4</v>
       </c>
       <c r="U245">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.25">
@@ -16490,10 +16505,10 @@
         <v>44118</v>
       </c>
       <c r="B246">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C246">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D246">
         <v>2</v>
@@ -16508,13 +16523,13 @@
         <v>0</v>
       </c>
       <c r="H246">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I246">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J246">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K246">
         <v>0</v>
@@ -16523,22 +16538,22 @@
         <v>8</v>
       </c>
       <c r="M246">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N246">
         <v>5</v>
       </c>
       <c r="O246">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P246">
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R246">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S246">
         <v>6</v>
@@ -16547,7 +16562,7 @@
         <v>0</v>
       </c>
       <c r="U246">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.25">
@@ -16558,7 +16573,7 @@
         <v>15</v>
       </c>
       <c r="C247">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D247">
         <v>1</v>
@@ -16573,34 +16588,34 @@
         <v>2</v>
       </c>
       <c r="H247">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I247">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J247">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K247">
         <v>0</v>
       </c>
       <c r="L247">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M247">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N247">
         <v>5</v>
       </c>
       <c r="O247">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P247">
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R247">
         <v>5</v>
@@ -16612,7 +16627,7 @@
         <v>1</v>
       </c>
       <c r="U247">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.25">
@@ -16620,7 +16635,7 @@
         <v>44120</v>
       </c>
       <c r="B248">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C248">
         <v>8</v>
@@ -16638,22 +16653,22 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I248">
         <v>6</v>
       </c>
       <c r="J248">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L248">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M248">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N248">
         <v>7</v>
@@ -16665,19 +16680,19 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R248">
         <v>7</v>
       </c>
       <c r="S248">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T248">
         <v>0</v>
       </c>
       <c r="U248">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.25">
@@ -16685,37 +16700,37 @@
         <v>44121</v>
       </c>
       <c r="B249">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C249">
         <v>8</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E249">
         <v>0</v>
       </c>
       <c r="F249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G249">
         <v>3</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I249">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J249">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K249">
         <v>1</v>
       </c>
       <c r="L249">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M249">
         <v>1</v>
@@ -16724,7 +16739,7 @@
         <v>4</v>
       </c>
       <c r="O249">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P249">
         <v>0</v>
@@ -16736,13 +16751,13 @@
         <v>4</v>
       </c>
       <c r="S249">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T249">
         <v>2</v>
       </c>
       <c r="U249">
-        <v>72</v>
+        <v>108</v>
       </c>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.25">
@@ -16750,7 +16765,7 @@
         <v>44122</v>
       </c>
       <c r="B250">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -16768,13 +16783,13 @@
         <v>0</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I250">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J250">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K250">
         <v>0</v>
@@ -16795,19 +16810,19 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R250">
         <v>2</v>
       </c>
       <c r="S250">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T250">
         <v>0</v>
       </c>
       <c r="U250">
-        <v>88</v>
+        <v>121</v>
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.25">
@@ -16815,7 +16830,7 @@
         <v>44123</v>
       </c>
       <c r="B251">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C251">
         <v>10</v>
@@ -16833,46 +16848,46 @@
         <v>0</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I251">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J251">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K251">
         <v>0</v>
       </c>
       <c r="L251">
+        <v>6</v>
+      </c>
+      <c r="M251">
         <v>5</v>
-      </c>
-      <c r="M251">
-        <v>4</v>
       </c>
       <c r="N251">
         <v>5</v>
       </c>
       <c r="O251">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="P251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R251">
+        <v>6</v>
+      </c>
+      <c r="S251">
         <v>5</v>
       </c>
-      <c r="S251">
-        <v>1</v>
-      </c>
       <c r="T251">
         <v>1</v>
       </c>
       <c r="U251">
-        <v>68</v>
+        <v>143</v>
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
@@ -16880,7 +16895,7 @@
         <v>44124</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C252">
         <v>17</v>
@@ -16898,46 +16913,46 @@
         <v>0</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I252">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J252">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K252">
         <v>0</v>
       </c>
       <c r="L252">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M252">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N252">
         <v>10</v>
       </c>
       <c r="O252">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="P252">
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R252">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S252">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T252">
         <v>1</v>
       </c>
       <c r="U252">
-        <v>81</v>
+        <v>154</v>
       </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.25">
@@ -16945,68 +16960,1823 @@
         <v>44125</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C253">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D253">
+        <v>9</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
+      </c>
+      <c r="H253">
+        <v>11</v>
+      </c>
+      <c r="I253">
+        <v>15</v>
+      </c>
+      <c r="J253">
+        <v>7</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>4</v>
+      </c>
+      <c r="M253">
+        <v>5</v>
+      </c>
+      <c r="N253">
+        <v>8</v>
+      </c>
+      <c r="O253">
+        <v>31</v>
+      </c>
+      <c r="P253">
+        <v>0</v>
+      </c>
+      <c r="Q253">
+        <v>4</v>
+      </c>
+      <c r="R253">
+        <v>3</v>
+      </c>
+      <c r="S253">
         <v>6</v>
       </c>
-      <c r="E253">
-        <v>0</v>
-      </c>
-      <c r="F253">
-        <v>1</v>
-      </c>
-      <c r="G253">
-        <v>1</v>
-      </c>
-      <c r="H253">
-        <v>1</v>
-      </c>
-      <c r="I253">
+      <c r="T253">
+        <v>0</v>
+      </c>
+      <c r="U253">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B254">
+        <v>33</v>
+      </c>
+      <c r="C254">
+        <v>12</v>
+      </c>
+      <c r="D254">
+        <v>7</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>3</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>11</v>
+      </c>
+      <c r="I254">
+        <v>23</v>
+      </c>
+      <c r="J254">
+        <v>16</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <v>7</v>
+      </c>
+      <c r="M254">
         <v>6</v>
       </c>
-      <c r="J253">
-        <v>0</v>
-      </c>
-      <c r="K253">
-        <v>0</v>
-      </c>
-      <c r="L253">
-        <v>1</v>
-      </c>
-      <c r="M253">
-        <v>2</v>
-      </c>
-      <c r="N253">
+      <c r="N254">
         <v>7</v>
       </c>
-      <c r="O253">
-        <v>2</v>
-      </c>
-      <c r="P253">
-        <v>0</v>
-      </c>
-      <c r="Q253">
-        <v>1</v>
-      </c>
-      <c r="R253">
-        <v>2</v>
-      </c>
-      <c r="S253">
-        <v>0</v>
-      </c>
-      <c r="T253">
-        <v>1</v>
-      </c>
-      <c r="U253">
+      <c r="O254">
+        <v>32</v>
+      </c>
+      <c r="P254">
+        <v>0</v>
+      </c>
+      <c r="Q254">
+        <v>4</v>
+      </c>
+      <c r="R254">
+        <v>4</v>
+      </c>
+      <c r="S254">
+        <v>9</v>
+      </c>
+      <c r="T254">
+        <v>1</v>
+      </c>
+      <c r="U254">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B255">
+        <v>27</v>
+      </c>
+      <c r="C255">
+        <v>19</v>
+      </c>
+      <c r="D255">
+        <v>8</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>6</v>
+      </c>
+      <c r="I255">
+        <v>26</v>
+      </c>
+      <c r="J255">
+        <v>9</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>12</v>
+      </c>
+      <c r="M255">
+        <v>4</v>
+      </c>
+      <c r="N255">
+        <v>5</v>
+      </c>
+      <c r="O255">
+        <v>34</v>
+      </c>
+      <c r="P255">
+        <v>0</v>
+      </c>
+      <c r="Q255">
+        <v>4</v>
+      </c>
+      <c r="R255">
+        <v>5</v>
+      </c>
+      <c r="S255">
+        <v>7</v>
+      </c>
+      <c r="T255">
+        <v>4</v>
+      </c>
+      <c r="U255">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B256">
+        <v>24</v>
+      </c>
+      <c r="C256">
+        <v>6</v>
+      </c>
+      <c r="D256">
+        <v>8</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>2</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>12</v>
+      </c>
+      <c r="I256">
+        <v>30</v>
+      </c>
+      <c r="J256">
+        <v>5</v>
+      </c>
+      <c r="K256">
+        <v>1</v>
+      </c>
+      <c r="L256">
+        <v>4</v>
+      </c>
+      <c r="M256">
+        <v>5</v>
+      </c>
+      <c r="N256">
+        <v>9</v>
+      </c>
+      <c r="O256">
+        <v>21</v>
+      </c>
+      <c r="P256">
+        <v>2</v>
+      </c>
+      <c r="Q256">
+        <v>6</v>
+      </c>
+      <c r="R256">
+        <v>2</v>
+      </c>
+      <c r="S256">
+        <v>8</v>
+      </c>
+      <c r="T256">
+        <v>3</v>
+      </c>
+      <c r="U256">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B257">
+        <v>35</v>
+      </c>
+      <c r="C257">
+        <v>7</v>
+      </c>
+      <c r="D257">
+        <v>3</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>10</v>
+      </c>
+      <c r="I257">
+        <v>18</v>
+      </c>
+      <c r="J257">
+        <v>13</v>
+      </c>
+      <c r="K257">
+        <v>3</v>
+      </c>
+      <c r="L257">
+        <v>6</v>
+      </c>
+      <c r="M257">
+        <v>1</v>
+      </c>
+      <c r="N257">
+        <v>5</v>
+      </c>
+      <c r="O257">
+        <v>28</v>
+      </c>
+      <c r="P257">
+        <v>0</v>
+      </c>
+      <c r="Q257">
+        <v>10</v>
+      </c>
+      <c r="R257">
+        <v>3</v>
+      </c>
+      <c r="S257">
+        <v>8</v>
+      </c>
+      <c r="T257">
+        <v>5</v>
+      </c>
+      <c r="U257">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B258">
         <v>33</v>
       </c>
-    </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A254" s="3" t="s">
+      <c r="C258">
+        <v>8</v>
+      </c>
+      <c r="D258">
+        <v>6</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>2</v>
+      </c>
+      <c r="G258">
+        <v>2</v>
+      </c>
+      <c r="H258">
+        <v>7</v>
+      </c>
+      <c r="I258">
+        <v>19</v>
+      </c>
+      <c r="J258">
+        <v>15</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+      <c r="L258">
+        <v>9</v>
+      </c>
+      <c r="M258">
+        <v>9</v>
+      </c>
+      <c r="N258">
+        <v>2</v>
+      </c>
+      <c r="O258">
+        <v>40</v>
+      </c>
+      <c r="P258">
+        <v>0</v>
+      </c>
+      <c r="Q258">
+        <v>7</v>
+      </c>
+      <c r="R258">
+        <v>3</v>
+      </c>
+      <c r="S258">
+        <v>10</v>
+      </c>
+      <c r="T258">
+        <v>1</v>
+      </c>
+      <c r="U258">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B259">
+        <v>32</v>
+      </c>
+      <c r="C259">
+        <v>22</v>
+      </c>
+      <c r="D259">
+        <v>7</v>
+      </c>
+      <c r="E259">
+        <v>3</v>
+      </c>
+      <c r="F259">
+        <v>3</v>
+      </c>
+      <c r="G259">
+        <v>2</v>
+      </c>
+      <c r="H259">
+        <v>17</v>
+      </c>
+      <c r="I259">
+        <v>21</v>
+      </c>
+      <c r="J259">
+        <v>15</v>
+      </c>
+      <c r="K259">
+        <v>1</v>
+      </c>
+      <c r="L259">
+        <v>13</v>
+      </c>
+      <c r="M259">
+        <v>5</v>
+      </c>
+      <c r="N259">
+        <v>8</v>
+      </c>
+      <c r="O259">
+        <v>26</v>
+      </c>
+      <c r="P259">
+        <v>1</v>
+      </c>
+      <c r="Q259">
+        <v>9</v>
+      </c>
+      <c r="R259">
+        <v>9</v>
+      </c>
+      <c r="S259">
+        <v>5</v>
+      </c>
+      <c r="T259">
+        <v>2</v>
+      </c>
+      <c r="U259">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B260">
+        <v>34</v>
+      </c>
+      <c r="C260">
+        <v>12</v>
+      </c>
+      <c r="D260">
+        <v>7</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>1</v>
+      </c>
+      <c r="H260">
+        <v>13</v>
+      </c>
+      <c r="I260">
+        <v>28</v>
+      </c>
+      <c r="J260">
+        <v>13</v>
+      </c>
+      <c r="K260">
+        <v>1</v>
+      </c>
+      <c r="L260">
+        <v>11</v>
+      </c>
+      <c r="M260">
+        <v>4</v>
+      </c>
+      <c r="N260">
+        <v>6</v>
+      </c>
+      <c r="O260">
+        <v>30</v>
+      </c>
+      <c r="P260">
+        <v>1</v>
+      </c>
+      <c r="Q260">
+        <v>7</v>
+      </c>
+      <c r="R260">
+        <v>5</v>
+      </c>
+      <c r="S260">
+        <v>14</v>
+      </c>
+      <c r="T260">
+        <v>2</v>
+      </c>
+      <c r="U260">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B261">
+        <v>35</v>
+      </c>
+      <c r="C261">
+        <v>12</v>
+      </c>
+      <c r="D261">
+        <v>10</v>
+      </c>
+      <c r="E261">
+        <v>2</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="H261">
+        <v>6</v>
+      </c>
+      <c r="I261">
+        <v>32</v>
+      </c>
+      <c r="J261">
+        <v>7</v>
+      </c>
+      <c r="K261">
+        <v>1</v>
+      </c>
+      <c r="L261">
+        <v>13</v>
+      </c>
+      <c r="M261">
+        <v>6</v>
+      </c>
+      <c r="N261">
+        <v>11</v>
+      </c>
+      <c r="O261">
+        <v>40</v>
+      </c>
+      <c r="P261">
+        <v>1</v>
+      </c>
+      <c r="Q261">
+        <v>8</v>
+      </c>
+      <c r="R261">
+        <v>3</v>
+      </c>
+      <c r="S261">
+        <v>8</v>
+      </c>
+      <c r="T261">
+        <v>5</v>
+      </c>
+      <c r="U261">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B262">
+        <v>31</v>
+      </c>
+      <c r="C262">
+        <v>16</v>
+      </c>
+      <c r="D262">
+        <v>7</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>2</v>
+      </c>
+      <c r="H262">
+        <v>4</v>
+      </c>
+      <c r="I262">
+        <v>21</v>
+      </c>
+      <c r="J262">
+        <v>19</v>
+      </c>
+      <c r="K262">
+        <v>3</v>
+      </c>
+      <c r="L262">
+        <v>16</v>
+      </c>
+      <c r="M262">
+        <v>9</v>
+      </c>
+      <c r="N262">
+        <v>15</v>
+      </c>
+      <c r="O262">
+        <v>12</v>
+      </c>
+      <c r="P262">
+        <v>2</v>
+      </c>
+      <c r="Q262">
+        <v>8</v>
+      </c>
+      <c r="R262">
+        <v>7</v>
+      </c>
+      <c r="S262">
+        <v>11</v>
+      </c>
+      <c r="T262">
+        <v>3</v>
+      </c>
+      <c r="U262">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B263">
+        <v>36</v>
+      </c>
+      <c r="C263">
+        <v>14</v>
+      </c>
+      <c r="D263">
+        <v>10</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>3</v>
+      </c>
+      <c r="G263">
+        <v>1</v>
+      </c>
+      <c r="H263">
+        <v>8</v>
+      </c>
+      <c r="I263">
+        <v>23</v>
+      </c>
+      <c r="J263">
+        <v>14</v>
+      </c>
+      <c r="K263">
+        <v>2</v>
+      </c>
+      <c r="L263">
+        <v>9</v>
+      </c>
+      <c r="M263">
+        <v>7</v>
+      </c>
+      <c r="N263">
+        <v>12</v>
+      </c>
+      <c r="O263">
+        <v>27</v>
+      </c>
+      <c r="P263">
+        <v>3</v>
+      </c>
+      <c r="Q263">
+        <v>9</v>
+      </c>
+      <c r="R263">
+        <v>4</v>
+      </c>
+      <c r="S263">
+        <v>5</v>
+      </c>
+      <c r="T263">
+        <v>2</v>
+      </c>
+      <c r="U263">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B264">
+        <v>41</v>
+      </c>
+      <c r="C264">
+        <v>15</v>
+      </c>
+      <c r="D264">
+        <v>14</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+      <c r="F264">
+        <v>2</v>
+      </c>
+      <c r="G264">
+        <v>1</v>
+      </c>
+      <c r="H264">
+        <v>7</v>
+      </c>
+      <c r="I264">
+        <v>25</v>
+      </c>
+      <c r="J264">
+        <v>18</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <v>13</v>
+      </c>
+      <c r="M264">
+        <v>8</v>
+      </c>
+      <c r="N264">
+        <v>7</v>
+      </c>
+      <c r="O264">
+        <v>27</v>
+      </c>
+      <c r="P264">
+        <v>0</v>
+      </c>
+      <c r="Q264">
+        <v>13</v>
+      </c>
+      <c r="R264">
+        <v>3</v>
+      </c>
+      <c r="S264">
+        <v>9</v>
+      </c>
+      <c r="T264">
+        <v>2</v>
+      </c>
+      <c r="U264">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B265">
+        <v>36</v>
+      </c>
+      <c r="C265">
+        <v>16</v>
+      </c>
+      <c r="D265">
+        <v>18</v>
+      </c>
+      <c r="E265">
+        <v>2</v>
+      </c>
+      <c r="F265">
+        <v>2</v>
+      </c>
+      <c r="G265">
+        <v>1</v>
+      </c>
+      <c r="H265">
+        <v>5</v>
+      </c>
+      <c r="I265">
+        <v>34</v>
+      </c>
+      <c r="J265">
+        <v>15</v>
+      </c>
+      <c r="K265">
+        <v>1</v>
+      </c>
+      <c r="L265">
+        <v>8</v>
+      </c>
+      <c r="M265">
+        <v>9</v>
+      </c>
+      <c r="N265">
+        <v>7</v>
+      </c>
+      <c r="O265">
+        <v>23</v>
+      </c>
+      <c r="P265">
+        <v>3</v>
+      </c>
+      <c r="Q265">
+        <v>12</v>
+      </c>
+      <c r="R265">
+        <v>9</v>
+      </c>
+      <c r="S265">
+        <v>14</v>
+      </c>
+      <c r="T265">
+        <v>1</v>
+      </c>
+      <c r="U265">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B266">
+        <v>45</v>
+      </c>
+      <c r="C266">
+        <v>20</v>
+      </c>
+      <c r="D266">
+        <v>8</v>
+      </c>
+      <c r="E266">
+        <v>3</v>
+      </c>
+      <c r="F266">
+        <v>2</v>
+      </c>
+      <c r="G266">
+        <v>5</v>
+      </c>
+      <c r="H266">
+        <v>16</v>
+      </c>
+      <c r="I266">
+        <v>22</v>
+      </c>
+      <c r="J266">
+        <v>20</v>
+      </c>
+      <c r="K266">
+        <v>3</v>
+      </c>
+      <c r="L266">
+        <v>14</v>
+      </c>
+      <c r="M266">
+        <v>11</v>
+      </c>
+      <c r="N266">
+        <v>11</v>
+      </c>
+      <c r="O266">
+        <v>31</v>
+      </c>
+      <c r="P266">
+        <v>1</v>
+      </c>
+      <c r="Q266">
+        <v>6</v>
+      </c>
+      <c r="R266">
+        <v>7</v>
+      </c>
+      <c r="S266">
+        <v>21</v>
+      </c>
+      <c r="T266">
+        <v>3</v>
+      </c>
+      <c r="U266">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B267">
+        <v>47</v>
+      </c>
+      <c r="C267">
+        <v>28</v>
+      </c>
+      <c r="D267">
+        <v>23</v>
+      </c>
+      <c r="E267">
+        <v>2</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>3</v>
+      </c>
+      <c r="H267">
+        <v>16</v>
+      </c>
+      <c r="I267">
+        <v>42</v>
+      </c>
+      <c r="J267">
+        <v>23</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <v>10</v>
+      </c>
+      <c r="M267">
+        <v>7</v>
+      </c>
+      <c r="N267">
+        <v>9</v>
+      </c>
+      <c r="O267">
+        <v>14</v>
+      </c>
+      <c r="P267">
+        <v>1</v>
+      </c>
+      <c r="Q267">
+        <v>11</v>
+      </c>
+      <c r="R267">
+        <v>4</v>
+      </c>
+      <c r="S267">
+        <v>10</v>
+      </c>
+      <c r="T267">
+        <v>4</v>
+      </c>
+      <c r="U267">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B268">
+        <v>37</v>
+      </c>
+      <c r="C268">
+        <v>25</v>
+      </c>
+      <c r="D268">
+        <v>16</v>
+      </c>
+      <c r="E268">
+        <v>4</v>
+      </c>
+      <c r="F268">
+        <v>1</v>
+      </c>
+      <c r="G268">
+        <v>1</v>
+      </c>
+      <c r="H268">
+        <v>13</v>
+      </c>
+      <c r="I268">
+        <v>32</v>
+      </c>
+      <c r="J268">
+        <v>29</v>
+      </c>
+      <c r="K268">
+        <v>3</v>
+      </c>
+      <c r="L268">
+        <v>15</v>
+      </c>
+      <c r="M268">
+        <v>9</v>
+      </c>
+      <c r="N268">
+        <v>8</v>
+      </c>
+      <c r="O268">
+        <v>33</v>
+      </c>
+      <c r="P268">
+        <v>0</v>
+      </c>
+      <c r="Q268">
+        <v>12</v>
+      </c>
+      <c r="R268">
+        <v>6</v>
+      </c>
+      <c r="S268">
+        <v>9</v>
+      </c>
+      <c r="T268">
+        <v>3</v>
+      </c>
+      <c r="U268">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B269">
+        <v>50</v>
+      </c>
+      <c r="C269">
+        <v>36</v>
+      </c>
+      <c r="D269">
+        <v>23</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>2</v>
+      </c>
+      <c r="G269">
+        <v>2</v>
+      </c>
+      <c r="H269">
+        <v>14</v>
+      </c>
+      <c r="I269">
+        <v>39</v>
+      </c>
+      <c r="J269">
+        <v>14</v>
+      </c>
+      <c r="K269">
+        <v>1</v>
+      </c>
+      <c r="L269">
+        <v>14</v>
+      </c>
+      <c r="M269">
+        <v>7</v>
+      </c>
+      <c r="N269">
+        <v>10</v>
+      </c>
+      <c r="O269">
+        <v>28</v>
+      </c>
+      <c r="P269">
+        <v>2</v>
+      </c>
+      <c r="Q269">
+        <v>10</v>
+      </c>
+      <c r="R269">
+        <v>9</v>
+      </c>
+      <c r="S269">
+        <v>11</v>
+      </c>
+      <c r="T269">
+        <v>4</v>
+      </c>
+      <c r="U269">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B270">
+        <v>29</v>
+      </c>
+      <c r="C270">
+        <v>20</v>
+      </c>
+      <c r="D270">
+        <v>20</v>
+      </c>
+      <c r="E270">
+        <v>3</v>
+      </c>
+      <c r="F270">
+        <v>3</v>
+      </c>
+      <c r="G270">
+        <v>2</v>
+      </c>
+      <c r="H270">
+        <v>11</v>
+      </c>
+      <c r="I270">
+        <v>32</v>
+      </c>
+      <c r="J270">
+        <v>10</v>
+      </c>
+      <c r="K270">
+        <v>1</v>
+      </c>
+      <c r="L270">
+        <v>16</v>
+      </c>
+      <c r="M270">
+        <v>4</v>
+      </c>
+      <c r="N270">
+        <v>10</v>
+      </c>
+      <c r="O270">
+        <v>17</v>
+      </c>
+      <c r="P270">
+        <v>2</v>
+      </c>
+      <c r="Q270">
+        <v>13</v>
+      </c>
+      <c r="R270">
+        <v>5</v>
+      </c>
+      <c r="S270">
+        <v>9</v>
+      </c>
+      <c r="T270">
+        <v>3</v>
+      </c>
+      <c r="U270">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B271">
+        <v>36</v>
+      </c>
+      <c r="C271">
+        <v>26</v>
+      </c>
+      <c r="D271">
+        <v>11</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <v>2</v>
+      </c>
+      <c r="G271">
+        <v>2</v>
+      </c>
+      <c r="H271">
+        <v>10</v>
+      </c>
+      <c r="I271">
+        <v>28</v>
+      </c>
+      <c r="J271">
+        <v>11</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>11</v>
+      </c>
+      <c r="M271">
+        <v>7</v>
+      </c>
+      <c r="N271">
+        <v>14</v>
+      </c>
+      <c r="O271">
+        <v>23</v>
+      </c>
+      <c r="P271">
+        <v>0</v>
+      </c>
+      <c r="Q271">
+        <v>12</v>
+      </c>
+      <c r="R271">
+        <v>6</v>
+      </c>
+      <c r="S271">
+        <v>17</v>
+      </c>
+      <c r="T271">
+        <v>3</v>
+      </c>
+      <c r="U271">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B272">
+        <v>42</v>
+      </c>
+      <c r="C272">
+        <v>17</v>
+      </c>
+      <c r="D272">
+        <v>19</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <v>2</v>
+      </c>
+      <c r="G272">
+        <v>3</v>
+      </c>
+      <c r="H272">
+        <v>14</v>
+      </c>
+      <c r="I272">
+        <v>37</v>
+      </c>
+      <c r="J272">
+        <v>5</v>
+      </c>
+      <c r="K272">
+        <v>2</v>
+      </c>
+      <c r="L272">
+        <v>17</v>
+      </c>
+      <c r="M272">
+        <v>7</v>
+      </c>
+      <c r="N272">
+        <v>11</v>
+      </c>
+      <c r="O272">
+        <v>15</v>
+      </c>
+      <c r="P272">
+        <v>0</v>
+      </c>
+      <c r="Q272">
+        <v>12</v>
+      </c>
+      <c r="R272">
+        <v>3</v>
+      </c>
+      <c r="S272">
+        <v>6</v>
+      </c>
+      <c r="T272">
+        <v>1</v>
+      </c>
+      <c r="U272">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B273">
+        <v>39</v>
+      </c>
+      <c r="C273">
+        <v>39</v>
+      </c>
+      <c r="D273">
+        <v>18</v>
+      </c>
+      <c r="E273">
+        <v>2</v>
+      </c>
+      <c r="F273">
+        <v>2</v>
+      </c>
+      <c r="G273">
+        <v>2</v>
+      </c>
+      <c r="H273">
+        <v>5</v>
+      </c>
+      <c r="I273">
+        <v>31</v>
+      </c>
+      <c r="J273">
+        <v>9</v>
+      </c>
+      <c r="K273">
+        <v>1</v>
+      </c>
+      <c r="L273">
+        <v>21</v>
+      </c>
+      <c r="M273">
+        <v>4</v>
+      </c>
+      <c r="N273">
+        <v>10</v>
+      </c>
+      <c r="O273">
+        <v>11</v>
+      </c>
+      <c r="P273">
+        <v>0</v>
+      </c>
+      <c r="Q273">
+        <v>4</v>
+      </c>
+      <c r="R273">
+        <v>10</v>
+      </c>
+      <c r="S273">
+        <v>14</v>
+      </c>
+      <c r="T273">
+        <v>5</v>
+      </c>
+      <c r="U273">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B274">
+        <v>44</v>
+      </c>
+      <c r="C274">
+        <v>17</v>
+      </c>
+      <c r="D274">
+        <v>11</v>
+      </c>
+      <c r="E274">
+        <v>3</v>
+      </c>
+      <c r="F274">
+        <v>2</v>
+      </c>
+      <c r="G274">
+        <v>3</v>
+      </c>
+      <c r="H274">
+        <v>19</v>
+      </c>
+      <c r="I274">
+        <v>30</v>
+      </c>
+      <c r="J274">
+        <v>16</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>13</v>
+      </c>
+      <c r="M274">
+        <v>12</v>
+      </c>
+      <c r="N274">
+        <v>16</v>
+      </c>
+      <c r="O274">
+        <v>28</v>
+      </c>
+      <c r="P274">
+        <v>2</v>
+      </c>
+      <c r="Q274">
+        <v>12</v>
+      </c>
+      <c r="R274">
+        <v>4</v>
+      </c>
+      <c r="S274">
+        <v>16</v>
+      </c>
+      <c r="T274">
+        <v>4</v>
+      </c>
+      <c r="U274">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B275">
+        <v>41</v>
+      </c>
+      <c r="C275">
+        <v>28</v>
+      </c>
+      <c r="D275">
+        <v>14</v>
+      </c>
+      <c r="E275">
+        <v>2</v>
+      </c>
+      <c r="F275">
+        <v>1</v>
+      </c>
+      <c r="G275">
+        <v>4</v>
+      </c>
+      <c r="H275">
+        <v>12</v>
+      </c>
+      <c r="I275">
+        <v>29</v>
+      </c>
+      <c r="J275">
+        <v>11</v>
+      </c>
+      <c r="K275">
+        <v>2</v>
+      </c>
+      <c r="L275">
+        <v>20</v>
+      </c>
+      <c r="M275">
+        <v>11</v>
+      </c>
+      <c r="N275">
+        <v>13</v>
+      </c>
+      <c r="O275">
+        <v>18</v>
+      </c>
+      <c r="P275">
+        <v>0</v>
+      </c>
+      <c r="Q275">
+        <v>11</v>
+      </c>
+      <c r="R275">
+        <v>3</v>
+      </c>
+      <c r="S275">
+        <v>16</v>
+      </c>
+      <c r="T275">
+        <v>2</v>
+      </c>
+      <c r="U275">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B276">
+        <v>34</v>
+      </c>
+      <c r="C276">
+        <v>43</v>
+      </c>
+      <c r="D276">
+        <v>24</v>
+      </c>
+      <c r="E276">
+        <v>3</v>
+      </c>
+      <c r="F276">
+        <v>1</v>
+      </c>
+      <c r="G276">
+        <v>6</v>
+      </c>
+      <c r="H276">
+        <v>12</v>
+      </c>
+      <c r="I276">
+        <v>28</v>
+      </c>
+      <c r="J276">
+        <v>5</v>
+      </c>
+      <c r="K276">
+        <v>1</v>
+      </c>
+      <c r="L276">
+        <v>19</v>
+      </c>
+      <c r="M276">
+        <v>2</v>
+      </c>
+      <c r="N276">
+        <v>8</v>
+      </c>
+      <c r="O276">
+        <v>16</v>
+      </c>
+      <c r="P276">
+        <v>2</v>
+      </c>
+      <c r="Q276">
+        <v>6</v>
+      </c>
+      <c r="R276">
+        <v>1</v>
+      </c>
+      <c r="S276">
+        <v>18</v>
+      </c>
+      <c r="T276">
+        <v>2</v>
+      </c>
+      <c r="U276">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B277">
+        <v>42</v>
+      </c>
+      <c r="C277">
+        <v>14</v>
+      </c>
+      <c r="D277">
+        <v>22</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>4</v>
+      </c>
+      <c r="I277">
+        <v>22</v>
+      </c>
+      <c r="J277">
+        <v>1</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
+      <c r="L277">
+        <v>22</v>
+      </c>
+      <c r="M277">
+        <v>7</v>
+      </c>
+      <c r="N277">
+        <v>11</v>
+      </c>
+      <c r="O277">
+        <v>8</v>
+      </c>
+      <c r="P277">
+        <v>0</v>
+      </c>
+      <c r="Q277">
+        <v>6</v>
+      </c>
+      <c r="R277">
+        <v>8</v>
+      </c>
+      <c r="S277">
+        <v>8</v>
+      </c>
+      <c r="T277">
+        <v>3</v>
+      </c>
+      <c r="U277">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B278">
+        <v>34</v>
+      </c>
+      <c r="C278">
+        <v>14</v>
+      </c>
+      <c r="D278">
+        <v>25</v>
+      </c>
+      <c r="E278">
+        <v>2</v>
+      </c>
+      <c r="F278">
+        <v>3</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="H278">
+        <v>3</v>
+      </c>
+      <c r="I278">
+        <v>32</v>
+      </c>
+      <c r="J278">
+        <v>3</v>
+      </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
+      <c r="L278">
+        <v>16</v>
+      </c>
+      <c r="M278">
+        <v>4</v>
+      </c>
+      <c r="N278">
+        <v>5</v>
+      </c>
+      <c r="O278">
+        <v>19</v>
+      </c>
+      <c r="P278">
+        <v>1</v>
+      </c>
+      <c r="Q278">
+        <v>3</v>
+      </c>
+      <c r="R278">
+        <v>5</v>
+      </c>
+      <c r="S278">
+        <v>11</v>
+      </c>
+      <c r="T278">
+        <v>3</v>
+      </c>
+      <c r="U278">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B279">
+        <v>21</v>
+      </c>
+      <c r="C279">
+        <v>33</v>
+      </c>
+      <c r="D279">
+        <v>9</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="G279">
+        <v>2</v>
+      </c>
+      <c r="H279">
+        <v>5</v>
+      </c>
+      <c r="I279">
+        <v>28</v>
+      </c>
+      <c r="J279">
+        <v>2</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+      <c r="L279">
+        <v>13</v>
+      </c>
+      <c r="M279">
+        <v>7</v>
+      </c>
+      <c r="N279">
+        <v>4</v>
+      </c>
+      <c r="O279">
+        <v>8</v>
+      </c>
+      <c r="P279">
+        <v>0</v>
+      </c>
+      <c r="Q279">
+        <v>7</v>
+      </c>
+      <c r="R279">
+        <v>6</v>
+      </c>
+      <c r="S279">
+        <v>1</v>
+      </c>
+      <c r="T279">
+        <v>3</v>
+      </c>
+      <c r="U279">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B280">
+        <v>12</v>
+      </c>
+      <c r="C280">
+        <v>25</v>
+      </c>
+      <c r="D280">
+        <v>14</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="H280">
+        <v>2</v>
+      </c>
+      <c r="I280">
+        <v>9</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+      <c r="L280">
+        <v>4</v>
+      </c>
+      <c r="M280">
+        <v>8</v>
+      </c>
+      <c r="N280">
+        <v>12</v>
+      </c>
+      <c r="O280">
+        <v>1</v>
+      </c>
+      <c r="P280">
+        <v>0</v>
+      </c>
+      <c r="Q280">
+        <v>3</v>
+      </c>
+      <c r="R280">
+        <v>3</v>
+      </c>
+      <c r="S280">
+        <v>0</v>
+      </c>
+      <c r="T280">
+        <v>3</v>
+      </c>
+      <c r="U280">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
         <v>21</v>
       </c>
     </row>
